--- a/2/Top-500-Ranking-ATP.xlsx
+++ b/2/Top-500-Ranking-ATP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c4b9b0ad2635f32/Documentos/GitHub/Ejercicios Excel Intermedio/2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_B2C5FC87440816E3517F55721BCFC1166E06EA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{594F6ED9-78E1-47BA-B0EB-51AB714545C6}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_B2C5FC87440816E3517F55721BCFC1166E06EA3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{381E0D00-2423-4EAF-943B-F818870A3154}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,19 +16,30 @@
     <sheet name="20211129" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211129'!$A$1:$G$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20211129'!$A$1:$I$501</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
   <si>
     <t>Ránking</t>
   </si>
@@ -1552,6 +1563,9 @@
   </si>
   <si>
     <t xml:space="preserve">Promedio de puntos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los mejores 15</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1615,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6516,6 +6536,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6779,10 +6803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6795,9 +6819,10 @@
     <col min="6" max="6" width="30.88671875" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="24.21875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6822,8 +6847,11 @@
       <c r="H1" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6845,9 +6873,12 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H2" s="1">
+        <f>AVERAGE(D2/E2)</f>
+        <v>824.28571428571433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6869,9 +6900,12 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="0">AVERAGE(D3/E3)</f>
+        <v>375.6521739130435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6893,9 +6927,12 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>340.86956521739131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6917,9 +6954,12 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>251.53846153846155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6941,9 +6981,12 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>183.92857142857142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6965,9 +7008,12 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>443.18181818181819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6989,9 +7035,12 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>217.52380952380952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7013,9 +7062,12 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>118.85714285714286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7037,9 +7089,12 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>115.8125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7061,9 +7116,12 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>79.761904761904759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7085,9 +7143,12 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>118.14285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7109,9 +7170,12 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7133,9 +7197,12 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7157,9 +7224,12 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>88.392857142857139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7181,7 +7251,10 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>161.66666666666666</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -7205,7 +7278,10 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>298.125</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -7229,7 +7305,10 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>78.433333333333337</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
@@ -7253,7 +7332,10 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>58.774999999999999</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -7277,7 +7359,10 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>83.703703703703709</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
@@ -7301,7 +7386,10 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>89.2</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -7325,7 +7413,10 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>89.916666666666671</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
@@ -7349,7 +7440,10 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>65.65625</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -7373,7 +7467,10 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>58.571428571428569</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
@@ -7397,7 +7494,10 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>110.61111111111111</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -7421,7 +7521,10 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>58.848484848484851</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -7445,7 +7548,10 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>69.142857142857139</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -7469,7 +7575,10 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>50.694444444444443</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
@@ -7493,7 +7602,10 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>72.040000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -7517,7 +7629,10 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>59.689655172413794</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
@@ -7541,7 +7656,10 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>65.769230769230774</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -7565,7 +7683,10 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>53.032258064516128</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
@@ -7589,7 +7710,10 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>59.703703703703702</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -7613,7 +7737,10 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>46.794117647058826</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
@@ -7637,7 +7764,10 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>53.827586206896555</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -7661,7 +7791,10 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>43.277777777777779</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
@@ -7685,7 +7818,10 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>39.435897435897438</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -7709,7 +7845,10 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>49.8</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
@@ -7733,7 +7872,10 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>45.212121212121211</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -7757,7 +7899,10 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <f t="shared" si="0"/>
+        <v>59.04</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
@@ -7781,7 +7926,10 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>48.633333333333333</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -7805,7 +7953,10 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <f t="shared" si="0"/>
+        <v>36.564102564102562</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
@@ -7829,7 +7980,10 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>50.071428571428569</v>
+      </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -7853,7 +8007,10 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <f t="shared" si="0"/>
+        <v>38.542857142857144</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
@@ -7877,7 +8034,10 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <f t="shared" si="0"/>
+        <v>40.212121212121211</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -7901,7 +8061,10 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <f t="shared" si="0"/>
+        <v>32.35</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -7925,7 +8088,10 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>28.953488372093023</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -7949,7 +8115,10 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>63.684210526315788</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
@@ -7973,7 +8142,10 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>42.642857142857146</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -7997,7 +8169,10 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>31.783783783783782</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
@@ -8021,7 +8196,10 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <f t="shared" si="0"/>
+        <v>32.222222222222221</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -8045,7 +8223,10 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>36.58064516129032</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
@@ -8069,7 +8250,10 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>32.314285714285717</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -8093,7 +8277,10 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>31.857142857142858</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
@@ -8117,7 +8304,10 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>27.524999999999999</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -8141,7 +8331,10 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>30.111111111111111</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
@@ -8165,7 +8358,10 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>44.291666666666664</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -8189,7 +8385,10 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>28.722222222222221</v>
+      </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
@@ -8213,7 +8412,10 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>19.055555555555557</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -8237,7 +8439,10 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>21.361702127659573</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
@@ -8261,7 +8466,10 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
+        <v>23.279069767441861</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -8285,7 +8493,10 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
@@ -8309,7 +8520,10 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>24.45</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
@@ -8333,7 +8547,10 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>20.76595744680851</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
@@ -8357,7 +8574,10 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>21.065217391304348</v>
+      </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -8381,7 +8601,10 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>24.76923076923077</v>
+      </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
@@ -8405,7 +8628,10 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H130" si="1">AVERAGE(D67/E67)</f>
+        <v>28.151515151515152</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
@@ -8429,7 +8655,10 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <f t="shared" si="1"/>
+        <v>22.414634146341463</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
@@ -8453,7 +8682,10 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <f t="shared" si="1"/>
+        <v>33.962962962962962</v>
+      </c>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -8477,7 +8709,10 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <f t="shared" si="1"/>
+        <v>25.444444444444443</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
@@ -8501,7 +8736,10 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <f t="shared" si="1"/>
+        <v>63.142857142857146</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -8525,7 +8763,10 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <f t="shared" si="1"/>
+        <v>23.756756756756758</v>
+      </c>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
@@ -8549,7 +8790,10 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <f t="shared" si="1"/>
+        <v>23.026315789473685</v>
+      </c>
     </row>
     <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -8573,7 +8817,10 @@
       <c r="G74" s="1">
         <v>0</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <f t="shared" si="1"/>
+        <v>54.625</v>
+      </c>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
@@ -8597,7 +8844,10 @@
       <c r="G75" s="1">
         <v>16</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <f>AVERAGE(D75/E75)</f>
+        <v>20.209302325581394</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -8621,7 +8871,10 @@
       <c r="G76" s="1">
         <v>0</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <f>AVERAGE(D76/E76)</f>
+        <v>32.074074074074076</v>
+      </c>
     </row>
     <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
@@ -8645,7 +8898,10 @@
       <c r="G77" s="1">
         <v>12</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <f t="shared" si="1"/>
+        <v>22.710526315789473</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -8669,7 +8925,10 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <f t="shared" si="1"/>
+        <v>26.060606060606062</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
@@ -8693,7 +8952,10 @@
       <c r="G79" s="1">
         <v>0</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <f t="shared" si="1"/>
+        <v>21.743589743589745</v>
+      </c>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -8717,7 +8979,10 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <f t="shared" si="1"/>
+        <v>18.391304347826086</v>
+      </c>
     </row>
     <row r="81" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
@@ -8741,7 +9006,10 @@
       <c r="G81" s="1">
         <v>0</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <f t="shared" si="1"/>
+        <v>39.476190476190474</v>
+      </c>
     </row>
     <row r="82" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -8765,7 +9033,10 @@
       <c r="G82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <f t="shared" si="1"/>
+        <v>27.433333333333334</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
@@ -8789,7 +9060,10 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <f t="shared" si="1"/>
+        <v>58.714285714285715</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -8813,7 +9087,10 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <f t="shared" si="1"/>
+        <v>19.11627906976744</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
@@ -8837,7 +9114,10 @@
       <c r="G85" s="1">
         <v>8</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <f t="shared" si="1"/>
+        <v>15.673076923076923</v>
+      </c>
     </row>
     <row r="86" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -8861,7 +9141,10 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <f t="shared" si="1"/>
+        <v>26.193548387096776</v>
+      </c>
     </row>
     <row r="87" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
@@ -8885,7 +9168,10 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <f t="shared" si="1"/>
+        <v>26.06451612903226</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -8909,7 +9195,10 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <f t="shared" si="1"/>
+        <v>27.827586206896552</v>
+      </c>
     </row>
     <row r="89" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
@@ -8933,7 +9222,10 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="1">
+        <f t="shared" si="1"/>
+        <v>18.318181818181817</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
@@ -8957,7 +9249,10 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <f t="shared" si="1"/>
+        <v>20.641025641025642</v>
+      </c>
     </row>
     <row r="91" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
@@ -8981,7 +9276,10 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="H91" s="1"/>
+      <c r="H91" s="1">
+        <f t="shared" si="1"/>
+        <v>17.456521739130434</v>
+      </c>
     </row>
     <row r="92" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -9005,7 +9303,10 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="1">
+        <f t="shared" si="1"/>
+        <v>21.621621621621621</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
@@ -9029,7 +9330,10 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="1"/>
+      <c r="H93" s="1">
+        <f t="shared" si="1"/>
+        <v>29.518518518518519</v>
+      </c>
     </row>
     <row r="94" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -9053,7 +9357,10 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H94" s="1"/>
+      <c r="H94" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="95" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
@@ -9077,7 +9384,10 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-      <c r="H95" s="1"/>
+      <c r="H95" s="1">
+        <f t="shared" si="1"/>
+        <v>24.4375</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -9101,7 +9411,10 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-      <c r="H96" s="1"/>
+      <c r="H96" s="1">
+        <f t="shared" si="1"/>
+        <v>18.093023255813954</v>
+      </c>
     </row>
     <row r="97" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
@@ -9125,7 +9438,10 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-      <c r="H97" s="1"/>
+      <c r="H97" s="1">
+        <f t="shared" si="1"/>
+        <v>22.735294117647058</v>
+      </c>
     </row>
     <row r="98" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -9149,7 +9465,10 @@
       <c r="G98" s="1">
         <v>7</v>
       </c>
-      <c r="H98" s="1"/>
+      <c r="H98" s="1">
+        <f t="shared" si="1"/>
+        <v>21.472222222222221</v>
+      </c>
     </row>
     <row r="99" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
@@ -9173,7 +9492,10 @@
       <c r="G99" s="1">
         <v>4</v>
       </c>
-      <c r="H99" s="1"/>
+      <c r="H99" s="1">
+        <f t="shared" si="1"/>
+        <v>20.236842105263158</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -9197,7 +9519,10 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="1"/>
+      <c r="H100" s="1">
+        <f t="shared" si="1"/>
+        <v>26.379310344827587</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
@@ -9221,7 +9546,10 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H101" s="1"/>
+      <c r="H101" s="1">
+        <f t="shared" si="1"/>
+        <v>21.083333333333332</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -9245,7 +9573,10 @@
       <c r="G102" s="1">
         <v>10</v>
       </c>
-      <c r="H102" s="1"/>
+      <c r="H102" s="1">
+        <f t="shared" si="1"/>
+        <v>18.170731707317074</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
@@ -9269,7 +9600,10 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-      <c r="H103" s="1"/>
+      <c r="H103" s="1">
+        <f t="shared" si="1"/>
+        <v>20.108108108108109</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -9293,7 +9627,10 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="H104" s="1"/>
+      <c r="H104" s="1">
+        <f t="shared" si="1"/>
+        <v>20.108108108108109</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
@@ -9317,7 +9654,10 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" s="1"/>
+      <c r="H105" s="1">
+        <f t="shared" si="1"/>
+        <v>16.444444444444443</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
@@ -9341,7 +9681,10 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" s="1"/>
+      <c r="H106" s="1">
+        <f t="shared" si="1"/>
+        <v>24.633333333333333</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
@@ -9365,7 +9708,10 @@
       <c r="G107" s="1">
         <v>0</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1">
+        <f t="shared" si="1"/>
+        <v>19.289473684210527</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
@@ -9389,7 +9735,10 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-      <c r="H108" s="1"/>
+      <c r="H108" s="1">
+        <f t="shared" si="1"/>
+        <v>24.366666666666667</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
@@ -9413,7 +9762,10 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
-      <c r="H109" s="1"/>
+      <c r="H109" s="1">
+        <f t="shared" si="1"/>
+        <v>29.916666666666668</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -9437,7 +9789,10 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-      <c r="H110" s="1"/>
+      <c r="H110" s="1">
+        <f t="shared" si="1"/>
+        <v>37.631578947368418</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
@@ -9461,7 +9816,10 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-      <c r="H111" s="1"/>
+      <c r="H111" s="1">
+        <f t="shared" si="1"/>
+        <v>31.086956521739129</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -9485,7 +9843,10 @@
       <c r="G112" s="1">
         <v>0</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="1">
+        <f t="shared" si="1"/>
+        <v>21.606060606060606</v>
+      </c>
     </row>
     <row r="113" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
@@ -9509,7 +9870,10 @@
       <c r="G113" s="1">
         <v>0</v>
       </c>
-      <c r="H113" s="1"/>
+      <c r="H113" s="1">
+        <f t="shared" si="1"/>
+        <v>17.972972972972972</v>
+      </c>
     </row>
     <row r="114" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -9533,7 +9897,10 @@
       <c r="G114" s="1">
         <v>0</v>
       </c>
-      <c r="H114" s="1"/>
+      <c r="H114" s="1">
+        <f t="shared" si="1"/>
+        <v>34.631578947368418</v>
+      </c>
     </row>
     <row r="115" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
@@ -9557,7 +9924,10 @@
       <c r="G115" s="1">
         <v>9</v>
       </c>
-      <c r="H115" s="1"/>
+      <c r="H115" s="1">
+        <f t="shared" si="1"/>
+        <v>15.547619047619047</v>
+      </c>
     </row>
     <row r="116" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -9581,7 +9951,10 @@
       <c r="G116" s="1">
         <v>8</v>
       </c>
-      <c r="H116" s="1"/>
+      <c r="H116" s="1">
+        <f t="shared" si="1"/>
+        <v>15.214285714285714</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
@@ -9605,7 +9978,10 @@
       <c r="G117" s="1">
         <v>0</v>
       </c>
-      <c r="H117" s="1"/>
+      <c r="H117" s="1">
+        <f t="shared" si="1"/>
+        <v>20.419354838709676</v>
+      </c>
     </row>
     <row r="118" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -9629,7 +10005,10 @@
       <c r="G118" s="1">
         <v>0</v>
       </c>
-      <c r="H118" s="1"/>
+      <c r="H118" s="1">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
@@ -9653,7 +10032,10 @@
       <c r="G119" s="1">
         <v>0</v>
       </c>
-      <c r="H119" s="1"/>
+      <c r="H119" s="1">
+        <f t="shared" si="1"/>
+        <v>17.742857142857144</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -9677,7 +10059,10 @@
       <c r="G120" s="1">
         <v>0</v>
       </c>
-      <c r="H120" s="1"/>
+      <c r="H120" s="1">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
@@ -9701,7 +10086,10 @@
       <c r="G121" s="1">
         <v>8</v>
       </c>
-      <c r="H121" s="1"/>
+      <c r="H121" s="1">
+        <f t="shared" si="1"/>
+        <v>13.195652173913043</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -9725,7 +10113,10 @@
       <c r="G122" s="1">
         <v>0</v>
       </c>
-      <c r="H122" s="1"/>
+      <c r="H122" s="1">
+        <f t="shared" si="1"/>
+        <v>12.583333333333334</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
@@ -9749,7 +10140,10 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-      <c r="H123" s="1"/>
+      <c r="H123" s="1">
+        <f t="shared" si="1"/>
+        <v>15.435897435897436</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -9773,7 +10167,10 @@
       <c r="G124" s="1">
         <v>0</v>
       </c>
-      <c r="H124" s="1"/>
+      <c r="H124" s="1">
+        <f t="shared" si="1"/>
+        <v>37.5625</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
@@ -9797,7 +10194,10 @@
       <c r="G125" s="1">
         <v>0</v>
       </c>
-      <c r="H125" s="1"/>
+      <c r="H125" s="1">
+        <f t="shared" si="1"/>
+        <v>17.057142857142857</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
@@ -9821,7 +10221,10 @@
       <c r="G126" s="1">
         <v>0</v>
       </c>
-      <c r="H126" s="1"/>
+      <c r="H126" s="1">
+        <f t="shared" si="1"/>
+        <v>15.447368421052632</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
@@ -9845,7 +10248,10 @@
       <c r="G127" s="1">
         <v>0</v>
       </c>
-      <c r="H127" s="1"/>
+      <c r="H127" s="1">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
@@ -9869,7 +10275,10 @@
       <c r="G128" s="1">
         <v>0</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128" s="1">
+        <f t="shared" si="1"/>
+        <v>15.756756756756756</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
@@ -9893,7 +10302,10 @@
       <c r="G129" s="1">
         <v>0</v>
       </c>
-      <c r="H129" s="1"/>
+      <c r="H129" s="1">
+        <f t="shared" si="1"/>
+        <v>13.547619047619047</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
@@ -9917,7 +10329,10 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
-      <c r="H130" s="1"/>
+      <c r="H130" s="1">
+        <f t="shared" si="1"/>
+        <v>13.829268292682928</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
@@ -9941,7 +10356,10 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
-      <c r="H131" s="1"/>
+      <c r="H131" s="1">
+        <f t="shared" ref="H131:H194" si="2">AVERAGE(D131/E131)</f>
+        <v>11.12</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -9965,7 +10383,10 @@
       <c r="G132" s="1">
         <v>0</v>
       </c>
-      <c r="H132" s="1"/>
+      <c r="H132" s="1">
+        <f t="shared" si="2"/>
+        <v>12.761904761904763</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
@@ -9989,7 +10410,10 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
-      <c r="H133" s="1"/>
+      <c r="H133" s="1">
+        <f t="shared" si="2"/>
+        <v>24.09090909090909</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -10013,7 +10437,10 @@
       <c r="G134" s="1">
         <v>0</v>
       </c>
-      <c r="H134" s="1"/>
+      <c r="H134" s="1">
+        <f t="shared" si="2"/>
+        <v>21.833333333333332</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
@@ -10037,7 +10464,10 @@
       <c r="G135" s="1">
         <v>0</v>
       </c>
-      <c r="H135" s="1"/>
+      <c r="H135" s="1">
+        <f t="shared" si="2"/>
+        <v>30.647058823529413</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -10061,7 +10491,10 @@
       <c r="G136" s="1">
         <v>7</v>
       </c>
-      <c r="H136" s="1"/>
+      <c r="H136" s="1">
+        <f t="shared" si="2"/>
+        <v>11.4</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
@@ -10085,7 +10518,10 @@
       <c r="G137" s="1">
         <v>0</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137" s="1">
+        <f t="shared" si="2"/>
+        <v>18.071428571428573</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -10109,7 +10545,10 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-      <c r="H138" s="1"/>
+      <c r="H138" s="1">
+        <f t="shared" si="2"/>
+        <v>13.675675675675675</v>
+      </c>
     </row>
     <row r="139" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
@@ -10133,7 +10572,10 @@
       <c r="G139" s="1">
         <v>0</v>
       </c>
-      <c r="H139" s="1"/>
+      <c r="H139" s="1">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="140" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -10157,7 +10599,10 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-      <c r="H140" s="1"/>
+      <c r="H140" s="1">
+        <f t="shared" si="2"/>
+        <v>15.806451612903226</v>
+      </c>
     </row>
     <row r="141" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
@@ -10181,7 +10626,10 @@
       <c r="G141" s="1">
         <v>6</v>
       </c>
-      <c r="H141" s="1"/>
+      <c r="H141" s="1">
+        <f t="shared" si="2"/>
+        <v>11.255813953488373</v>
+      </c>
     </row>
     <row r="142" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -10205,7 +10653,10 @@
       <c r="G142" s="1">
         <v>0</v>
       </c>
-      <c r="H142" s="1"/>
+      <c r="H142" s="1">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
@@ -10229,7 +10680,10 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-      <c r="H143" s="1"/>
+      <c r="H143" s="1">
+        <f t="shared" si="2"/>
+        <v>8.9074074074074066</v>
+      </c>
     </row>
     <row r="144" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
@@ -10253,7 +10707,10 @@
       <c r="G144" s="1">
         <v>0</v>
       </c>
-      <c r="H144" s="1"/>
+      <c r="H144" s="1">
+        <f t="shared" si="2"/>
+        <v>14.454545454545455</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
@@ -10277,7 +10734,10 @@
       <c r="G145" s="1">
         <v>0</v>
       </c>
-      <c r="H145" s="1"/>
+      <c r="H145" s="1">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
     </row>
     <row r="146" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
@@ -10301,7 +10761,10 @@
       <c r="G146" s="1">
         <v>4</v>
       </c>
-      <c r="H146" s="1"/>
+      <c r="H146" s="1">
+        <f t="shared" si="2"/>
+        <v>15.064516129032258</v>
+      </c>
     </row>
     <row r="147" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
@@ -10325,7 +10788,10 @@
       <c r="G147" s="1">
         <v>0</v>
       </c>
-      <c r="H147" s="1"/>
+      <c r="H147" s="1">
+        <f t="shared" si="2"/>
+        <v>24.263157894736842</v>
+      </c>
     </row>
     <row r="148" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -10349,7 +10815,10 @@
       <c r="G148" s="1">
         <v>8</v>
       </c>
-      <c r="H148" s="1"/>
+      <c r="H148" s="1">
+        <f t="shared" si="2"/>
+        <v>13.114285714285714</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
@@ -10373,7 +10842,10 @@
       <c r="G149" s="1">
         <v>0</v>
       </c>
-      <c r="H149" s="1"/>
+      <c r="H149" s="1">
+        <f t="shared" si="2"/>
+        <v>11.45</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
@@ -10397,7 +10869,10 @@
       <c r="G150" s="1">
         <v>0</v>
       </c>
-      <c r="H150" s="1"/>
+      <c r="H150" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6808510638297864</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
@@ -10421,7 +10896,10 @@
       <c r="G151" s="1">
         <v>0</v>
       </c>
-      <c r="H151" s="1"/>
+      <c r="H151" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8235294117647065</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
@@ -10445,7 +10923,10 @@
       <c r="G152" s="1">
         <v>0</v>
       </c>
-      <c r="H152" s="1"/>
+      <c r="H152" s="1">
+        <f t="shared" si="2"/>
+        <v>11.2</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
@@ -10469,7 +10950,10 @@
       <c r="G153" s="1">
         <v>0</v>
       </c>
-      <c r="H153" s="1"/>
+      <c r="H153" s="1">
+        <f t="shared" si="2"/>
+        <v>10.325581395348838</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
@@ -10493,7 +10977,10 @@
       <c r="G154" s="1">
         <v>0</v>
       </c>
-      <c r="H154" s="1"/>
+      <c r="H154" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6470588235294112</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
@@ -10517,7 +11004,10 @@
       <c r="G155" s="1">
         <v>0</v>
       </c>
-      <c r="H155" s="1"/>
+      <c r="H155" s="1">
+        <f t="shared" si="2"/>
+        <v>14.666666666666666</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
@@ -10541,7 +11031,10 @@
       <c r="G156" s="1">
         <v>0</v>
       </c>
-      <c r="H156" s="1"/>
+      <c r="H156" s="1">
+        <f t="shared" si="2"/>
+        <v>14.193548387096774</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
@@ -10565,7 +11058,10 @@
       <c r="G157" s="1">
         <v>0</v>
       </c>
-      <c r="H157" s="1"/>
+      <c r="H157" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7777777777777786</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
@@ -10589,7 +11085,10 @@
       <c r="G158" s="1">
         <v>0</v>
       </c>
-      <c r="H158" s="1"/>
+      <c r="H158" s="1">
+        <f t="shared" si="2"/>
+        <v>12.111111111111111</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
@@ -10613,7 +11112,10 @@
       <c r="G159" s="1">
         <v>0</v>
       </c>
-      <c r="H159" s="1"/>
+      <c r="H159" s="1">
+        <f t="shared" si="2"/>
+        <v>11.783783783783784</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -10637,7 +11139,10 @@
       <c r="G160" s="1">
         <v>0</v>
       </c>
-      <c r="H160" s="1"/>
+      <c r="H160" s="1">
+        <f t="shared" si="2"/>
+        <v>14.96551724137931</v>
+      </c>
     </row>
     <row r="161" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
@@ -10661,7 +11166,10 @@
       <c r="G161" s="1">
         <v>0</v>
       </c>
-      <c r="H161" s="1"/>
+      <c r="H161" s="1">
+        <f t="shared" si="2"/>
+        <v>12.314285714285715</v>
+      </c>
     </row>
     <row r="162" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -10685,7 +11193,10 @@
       <c r="G162" s="1">
         <v>0</v>
       </c>
-      <c r="H162" s="1"/>
+      <c r="H162" s="1">
+        <f t="shared" si="2"/>
+        <v>12.228571428571428</v>
+      </c>
     </row>
     <row r="163" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
@@ -10709,7 +11220,10 @@
       <c r="G163" s="1">
         <v>0</v>
       </c>
-      <c r="H163" s="1"/>
+      <c r="H163" s="1">
+        <f t="shared" si="2"/>
+        <v>14.758620689655173</v>
+      </c>
     </row>
     <row r="164" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -10733,7 +11247,10 @@
       <c r="G164" s="1">
         <v>0</v>
       </c>
-      <c r="H164" s="1"/>
+      <c r="H164" s="1">
+        <f t="shared" si="2"/>
+        <v>11.54054054054054</v>
+      </c>
     </row>
     <row r="165" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
@@ -10757,7 +11274,10 @@
       <c r="G165" s="1">
         <v>7</v>
       </c>
-      <c r="H165" s="1"/>
+      <c r="H165" s="1">
+        <f t="shared" si="2"/>
+        <v>9.8604651162790695</v>
+      </c>
     </row>
     <row r="166" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -10781,7 +11301,10 @@
       <c r="G166" s="1">
         <v>0</v>
       </c>
-      <c r="H166" s="1"/>
+      <c r="H166" s="1">
+        <f t="shared" si="2"/>
+        <v>11.405405405405405</v>
+      </c>
     </row>
     <row r="167" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
@@ -10805,7 +11328,10 @@
       <c r="G167" s="1">
         <v>0</v>
       </c>
-      <c r="H167" s="1"/>
+      <c r="H167" s="1">
+        <f t="shared" si="2"/>
+        <v>14.551724137931034</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
@@ -10829,7 +11355,10 @@
       <c r="G168" s="1">
         <v>0</v>
       </c>
-      <c r="H168" s="1"/>
+      <c r="H168" s="1">
+        <f t="shared" si="2"/>
+        <v>13.451612903225806</v>
+      </c>
     </row>
     <row r="169" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
@@ -10853,7 +11382,10 @@
       <c r="G169" s="1">
         <v>0</v>
       </c>
-      <c r="H169" s="1"/>
+      <c r="H169" s="1">
+        <f t="shared" si="2"/>
+        <v>10.487179487179487</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
@@ -10877,7 +11409,10 @@
       <c r="G170" s="1">
         <v>0</v>
       </c>
-      <c r="H170" s="1"/>
+      <c r="H170" s="1">
+        <f t="shared" si="2"/>
+        <v>10.358974358974359</v>
+      </c>
     </row>
     <row r="171" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
@@ -10901,7 +11436,10 @@
       <c r="G171" s="1">
         <v>0</v>
       </c>
-      <c r="H171" s="1"/>
+      <c r="H171" s="1">
+        <f t="shared" si="2"/>
+        <v>10.1</v>
+      </c>
     </row>
     <row r="172" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
@@ -10925,7 +11463,10 @@
       <c r="G172" s="1">
         <v>0</v>
       </c>
-      <c r="H172" s="1"/>
+      <c r="H172" s="1">
+        <f t="shared" si="2"/>
+        <v>10.837837837837839</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
@@ -10949,7 +11490,10 @@
       <c r="G173" s="1">
         <v>0</v>
       </c>
-      <c r="H173" s="1"/>
+      <c r="H173" s="1">
+        <f t="shared" si="2"/>
+        <v>17.90909090909091</v>
+      </c>
     </row>
     <row r="174" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -10973,7 +11517,10 @@
       <c r="G174" s="1">
         <v>0</v>
       </c>
-      <c r="H174" s="1"/>
+      <c r="H174" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5609756097560972</v>
+      </c>
     </row>
     <row r="175" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
@@ -10997,7 +11544,10 @@
       <c r="G175" s="1">
         <v>0</v>
       </c>
-      <c r="H175" s="1"/>
+      <c r="H175" s="1">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
     </row>
     <row r="176" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
@@ -11021,7 +11571,10 @@
       <c r="G176" s="1">
         <v>0</v>
       </c>
-      <c r="H176" s="1"/>
+      <c r="H176" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9487179487179489</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
@@ -11045,7 +11598,10 @@
       <c r="G177" s="1">
         <v>0</v>
       </c>
-      <c r="H177" s="1"/>
+      <c r="H177" s="1">
+        <f t="shared" si="2"/>
+        <v>13.310344827586206</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -11069,7 +11625,10 @@
       <c r="G178" s="1">
         <v>0</v>
       </c>
-      <c r="H178" s="1"/>
+      <c r="H178" s="1">
+        <f t="shared" si="2"/>
+        <v>12.03125</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
@@ -11093,7 +11652,10 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
-      <c r="H179" s="1"/>
+      <c r="H179" s="1">
+        <f t="shared" si="2"/>
+        <v>9.973684210526315</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
@@ -11117,7 +11679,10 @@
       <c r="G180" s="1">
         <v>7</v>
       </c>
-      <c r="H180" s="1"/>
+      <c r="H180" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6938775510204085</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
@@ -11141,7 +11706,10 @@
       <c r="G181" s="1">
         <v>0</v>
       </c>
-      <c r="H181" s="1"/>
+      <c r="H181" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8095238095238102</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -11165,7 +11733,10 @@
       <c r="G182" s="1">
         <v>0</v>
       </c>
-      <c r="H182" s="1"/>
+      <c r="H182" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5581395348837201</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
@@ -11189,7 +11760,10 @@
       <c r="G183" s="1">
         <v>0</v>
       </c>
-      <c r="H183" s="1"/>
+      <c r="H183" s="1">
+        <f t="shared" si="2"/>
+        <v>12.620689655172415</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -11213,7 +11787,10 @@
       <c r="G184" s="1">
         <v>2</v>
       </c>
-      <c r="H184" s="1"/>
+      <c r="H184" s="1">
+        <f t="shared" si="2"/>
+        <v>9.2564102564102573</v>
+      </c>
     </row>
     <row r="185" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
@@ -11237,7 +11814,10 @@
       <c r="G185" s="1">
         <v>0</v>
       </c>
-      <c r="H185" s="1"/>
+      <c r="H185" s="1">
+        <f t="shared" si="2"/>
+        <v>9.7567567567567561</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -11261,7 +11841,10 @@
       <c r="G186" s="1">
         <v>2</v>
       </c>
-      <c r="H186" s="1"/>
+      <c r="H186" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7804878048780495</v>
+      </c>
     </row>
     <row r="187" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
@@ -11285,7 +11868,10 @@
       <c r="G187" s="1">
         <v>0</v>
       </c>
-      <c r="H187" s="1"/>
+      <c r="H187" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8260869565217392</v>
+      </c>
     </row>
     <row r="188" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -11309,7 +11895,10 @@
       <c r="G188" s="1">
         <v>0</v>
       </c>
-      <c r="H188" s="1"/>
+      <c r="H188" s="1">
+        <f t="shared" si="2"/>
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="189" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
@@ -11333,7 +11922,10 @@
       <c r="G189" s="1">
         <v>0</v>
       </c>
-      <c r="H189" s="1"/>
+      <c r="H189" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3023255813953494</v>
+      </c>
     </row>
     <row r="190" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -11357,7 +11949,10 @@
       <c r="G190" s="1">
         <v>4</v>
       </c>
-      <c r="H190" s="1"/>
+      <c r="H190" s="1">
+        <f t="shared" si="2"/>
+        <v>7.2244897959183669</v>
+      </c>
     </row>
     <row r="191" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
@@ -11381,7 +11976,10 @@
       <c r="G191" s="1">
         <v>0</v>
       </c>
-      <c r="H191" s="1"/>
+      <c r="H191" s="1">
+        <f t="shared" si="2"/>
+        <v>12.103448275862069</v>
+      </c>
     </row>
     <row r="192" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -11405,7 +12003,10 @@
       <c r="G192" s="1">
         <v>0</v>
       </c>
-      <c r="H192" s="1"/>
+      <c r="H192" s="1">
+        <f t="shared" si="2"/>
+        <v>12.428571428571429</v>
+      </c>
     </row>
     <row r="193" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
@@ -11429,7 +12030,10 @@
       <c r="G193" s="1">
         <v>0</v>
       </c>
-      <c r="H193" s="1"/>
+      <c r="H193" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6750000000000007</v>
+      </c>
     </row>
     <row r="194" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -11453,7 +12057,10 @@
       <c r="G194" s="1">
         <v>0</v>
       </c>
-      <c r="H194" s="1"/>
+      <c r="H194" s="1">
+        <f t="shared" si="2"/>
+        <v>8.2380952380952372</v>
+      </c>
     </row>
     <row r="195" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
@@ -11477,7 +12084,10 @@
       <c r="G195" s="1">
         <v>0</v>
       </c>
-      <c r="H195" s="1"/>
+      <c r="H195" s="1">
+        <f t="shared" ref="H195:H258" si="3">AVERAGE(D195/E195)</f>
+        <v>7.9767441860465116</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -11501,7 +12111,10 @@
       <c r="G196" s="1">
         <v>0</v>
       </c>
-      <c r="H196" s="1"/>
+      <c r="H196" s="1">
+        <f t="shared" si="3"/>
+        <v>11.233333333333333</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
@@ -11525,7 +12138,10 @@
       <c r="G197" s="1">
         <v>0</v>
       </c>
-      <c r="H197" s="1"/>
+      <c r="H197" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="198" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -11549,7 +12165,10 @@
       <c r="G198" s="1">
         <v>4</v>
       </c>
-      <c r="H198" s="1"/>
+      <c r="H198" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8571428571428568</v>
+      </c>
     </row>
     <row r="199" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
@@ -11573,7 +12192,10 @@
       <c r="G199" s="1">
         <v>0</v>
       </c>
-      <c r="H199" s="1"/>
+      <c r="H199" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0749999999999993</v>
+      </c>
     </row>
     <row r="200" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -11597,7 +12219,10 @@
       <c r="G200" s="1">
         <v>0</v>
       </c>
-      <c r="H200" s="1"/>
+      <c r="H200" s="1">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
     </row>
     <row r="201" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
@@ -11621,7 +12246,10 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H201" s="1"/>
+      <c r="H201" s="1">
+        <f t="shared" si="3"/>
+        <v>6.708333333333333</v>
+      </c>
     </row>
     <row r="202" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
@@ -11645,7 +12273,10 @@
       <c r="G202" s="1">
         <v>0</v>
       </c>
-      <c r="H202" s="1"/>
+      <c r="H202" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1714285714285708</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
@@ -11669,7 +12300,10 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-      <c r="H203" s="1"/>
+      <c r="H203" s="1">
+        <f t="shared" si="3"/>
+        <v>8.9166666666666661</v>
+      </c>
     </row>
     <row r="204" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
@@ -11693,7 +12327,10 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-      <c r="H204" s="1"/>
+      <c r="H204" s="1">
+        <f t="shared" si="3"/>
+        <v>11.428571428571429</v>
+      </c>
     </row>
     <row r="205" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
@@ -11717,7 +12354,10 @@
       <c r="G205" s="1">
         <v>0</v>
       </c>
-      <c r="H205" s="1"/>
+      <c r="H205" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4482758620689653</v>
+      </c>
     </row>
     <row r="206" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
@@ -11741,7 +12381,10 @@
       <c r="G206" s="1">
         <v>7</v>
       </c>
-      <c r="H206" s="1"/>
+      <c r="H206" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4523809523809526</v>
+      </c>
     </row>
     <row r="207" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
@@ -11765,7 +12408,10 @@
       <c r="G207" s="1">
         <v>3</v>
       </c>
-      <c r="H207" s="1"/>
+      <c r="H207" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2558139534883717</v>
+      </c>
     </row>
     <row r="208" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
@@ -11789,7 +12435,10 @@
       <c r="G208" s="1">
         <v>5</v>
       </c>
-      <c r="H208" s="1"/>
+      <c r="H208" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6956521739130439</v>
+      </c>
     </row>
     <row r="209" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
@@ -11813,7 +12462,10 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-      <c r="H209" s="1"/>
+      <c r="H209" s="1">
+        <f t="shared" si="3"/>
+        <v>11.407407407407407</v>
+      </c>
     </row>
     <row r="210" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
@@ -11837,7 +12489,10 @@
       <c r="G210" s="1">
         <v>3</v>
       </c>
-      <c r="H210" s="1"/>
+      <c r="H210" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0697674418604652</v>
+      </c>
     </row>
     <row r="211" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
@@ -11861,7 +12516,10 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="1"/>
+      <c r="H211" s="1">
+        <f t="shared" si="3"/>
+        <v>10.448275862068966</v>
+      </c>
     </row>
     <row r="212" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
@@ -11885,7 +12543,10 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-      <c r="H212" s="1"/>
+      <c r="H212" s="1">
+        <f t="shared" si="3"/>
+        <v>6.5869565217391308</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
@@ -11909,7 +12570,10 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-      <c r="H213" s="1"/>
+      <c r="H213" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1212121212121211</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
@@ -11933,7 +12597,10 @@
       <c r="G214" s="1">
         <v>0</v>
       </c>
-      <c r="H214" s="1"/>
+      <c r="H214" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4249999999999998</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
@@ -11957,7 +12624,10 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-      <c r="H215" s="1"/>
+      <c r="H215" s="1">
+        <f t="shared" si="3"/>
+        <v>6.4130434782608692</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
@@ -11981,7 +12651,10 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-      <c r="H216" s="1"/>
+      <c r="H216" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3714285714285719</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
@@ -12005,7 +12678,10 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-      <c r="H217" s="1"/>
+      <c r="H217" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3714285714285719</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
@@ -12029,7 +12705,10 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="1"/>
+      <c r="H218" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5882352941176467</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
@@ -12053,7 +12732,10 @@
       <c r="G219" s="1">
         <v>0</v>
       </c>
-      <c r="H219" s="1"/>
+      <c r="H219" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5294117647058822</v>
+      </c>
     </row>
     <row r="220" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
@@ -12077,7 +12759,10 @@
       <c r="G220" s="1">
         <v>0</v>
       </c>
-      <c r="H220" s="1"/>
+      <c r="H220" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5769230769230766</v>
+      </c>
     </row>
     <row r="221" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
@@ -12101,7 +12786,10 @@
       <c r="G221" s="1">
         <v>0</v>
       </c>
-      <c r="H221" s="1"/>
+      <c r="H221" s="1">
+        <f t="shared" si="3"/>
+        <v>7.024390243902439</v>
+      </c>
     </row>
     <row r="222" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
@@ -12125,7 +12813,10 @@
       <c r="G222" s="1">
         <v>0</v>
       </c>
-      <c r="H222" s="1"/>
+      <c r="H222" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6279069767441863</v>
+      </c>
     </row>
     <row r="223" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
@@ -12149,7 +12840,10 @@
       <c r="G223" s="1">
         <v>2</v>
       </c>
-      <c r="H223" s="1"/>
+      <c r="H223" s="1">
+        <f t="shared" si="3"/>
+        <v>10.107142857142858</v>
+      </c>
     </row>
     <row r="224" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
@@ -12173,7 +12867,10 @@
       <c r="G224" s="1">
         <v>0</v>
       </c>
-      <c r="H224" s="1"/>
+      <c r="H224" s="1">
+        <f t="shared" si="3"/>
+        <v>11.28</v>
+      </c>
     </row>
     <row r="225" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
@@ -12197,7 +12894,10 @@
       <c r="G225" s="1">
         <v>0</v>
       </c>
-      <c r="H225" s="1"/>
+      <c r="H225" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5675675675675675</v>
+      </c>
     </row>
     <row r="226" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
@@ -12221,7 +12921,10 @@
       <c r="G226" s="1">
         <v>0</v>
       </c>
-      <c r="H226" s="1"/>
+      <c r="H226" s="1">
+        <f t="shared" si="3"/>
+        <v>8.454545454545455</v>
+      </c>
     </row>
     <row r="227" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
@@ -12245,7 +12948,10 @@
       <c r="G227" s="1">
         <v>0</v>
       </c>
-      <c r="H227" s="1"/>
+      <c r="H227" s="1">
+        <f t="shared" si="3"/>
+        <v>8.71875</v>
+      </c>
     </row>
     <row r="228" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
@@ -12269,7 +12975,10 @@
       <c r="G228" s="1">
         <v>0</v>
       </c>
-      <c r="H228" s="1"/>
+      <c r="H228" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="229" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
@@ -12293,7 +13002,10 @@
       <c r="G229" s="1">
         <v>0</v>
       </c>
-      <c r="H229" s="1"/>
+      <c r="H229" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="230" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
@@ -12317,7 +13029,10 @@
       <c r="G230" s="1">
         <v>0</v>
       </c>
-      <c r="H230" s="1"/>
+      <c r="H230" s="1">
+        <f t="shared" si="3"/>
+        <v>12.409090909090908</v>
+      </c>
     </row>
     <row r="231" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
@@ -12341,7 +13056,10 @@
       <c r="G231" s="1">
         <v>0</v>
       </c>
-      <c r="H231" s="1"/>
+      <c r="H231" s="1">
+        <f t="shared" si="3"/>
+        <v>10.23076923076923</v>
+      </c>
     </row>
     <row r="232" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
@@ -12365,7 +13083,10 @@
       <c r="G232" s="1">
         <v>0</v>
       </c>
-      <c r="H232" s="1"/>
+      <c r="H232" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3611111111111107</v>
+      </c>
     </row>
     <row r="233" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
@@ -12389,7 +13110,10 @@
       <c r="G233" s="1">
         <v>0</v>
       </c>
-      <c r="H233" s="1"/>
+      <c r="H233" s="1">
+        <f t="shared" si="3"/>
+        <v>6.2857142857142856</v>
+      </c>
     </row>
     <row r="234" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
@@ -12413,7 +13137,10 @@
       <c r="G234" s="1">
         <v>0</v>
       </c>
-      <c r="H234" s="1"/>
+      <c r="H234" s="1">
+        <f t="shared" si="3"/>
+        <v>10.958333333333334</v>
+      </c>
     </row>
     <row r="235" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
@@ -12437,7 +13164,10 @@
       <c r="G235" s="1">
         <v>0</v>
       </c>
-      <c r="H235" s="1"/>
+      <c r="H235" s="1">
+        <f t="shared" si="3"/>
+        <v>6.55</v>
+      </c>
     </row>
     <row r="236" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
@@ -12461,7 +13191,10 @@
       <c r="G236" s="1">
         <v>0</v>
       </c>
-      <c r="H236" s="1"/>
+      <c r="H236" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4571428571428573</v>
+      </c>
     </row>
     <row r="237" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
@@ -12485,7 +13218,10 @@
       <c r="G237" s="1">
         <v>0</v>
       </c>
-      <c r="H237" s="1"/>
+      <c r="H237" s="1">
+        <f t="shared" si="3"/>
+        <v>4.9245283018867925</v>
+      </c>
     </row>
     <row r="238" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
@@ -12509,7 +13245,10 @@
       <c r="G238" s="1">
         <v>0</v>
       </c>
-      <c r="H238" s="1"/>
+      <c r="H238" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8918918918918921</v>
+      </c>
     </row>
     <row r="239" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
@@ -12533,7 +13272,10 @@
       <c r="G239" s="1">
         <v>0</v>
       </c>
-      <c r="H239" s="1"/>
+      <c r="H239" s="1">
+        <f t="shared" si="3"/>
+        <v>7.666666666666667</v>
+      </c>
     </row>
     <row r="240" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
@@ -12557,7 +13299,10 @@
       <c r="G240" s="1">
         <v>0</v>
       </c>
-      <c r="H240" s="1"/>
+      <c r="H240" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5777777777777775</v>
+      </c>
     </row>
     <row r="241" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
@@ -12581,7 +13326,10 @@
       <c r="G241" s="1">
         <v>5</v>
       </c>
-      <c r="H241" s="1"/>
+      <c r="H241" s="1">
+        <f t="shared" si="3"/>
+        <v>6.25</v>
+      </c>
     </row>
     <row r="242" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
@@ -12605,7 +13353,10 @@
       <c r="G242" s="1">
         <v>0</v>
       </c>
-      <c r="H242" s="1"/>
+      <c r="H242" s="1">
+        <f t="shared" si="3"/>
+        <v>7.78125</v>
+      </c>
     </row>
     <row r="243" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
@@ -12629,7 +13380,10 @@
       <c r="G243" s="1">
         <v>0</v>
       </c>
-      <c r="H243" s="1"/>
+      <c r="H243" s="1">
+        <f t="shared" si="3"/>
+        <v>13.666666666666666</v>
+      </c>
     </row>
     <row r="244" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
@@ -12653,7 +13407,10 @@
       <c r="G244" s="1">
         <v>0</v>
       </c>
-      <c r="H244" s="1"/>
+      <c r="H244" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4727272727272727</v>
+      </c>
     </row>
     <row r="245" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
@@ -12677,7 +13434,10 @@
       <c r="G245" s="1">
         <v>0</v>
       </c>
-      <c r="H245" s="1"/>
+      <c r="H245" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4242424242424239</v>
+      </c>
     </row>
     <row r="246" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
@@ -12701,7 +13461,10 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-      <c r="H246" s="1"/>
+      <c r="H246" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1794871794871797</v>
+      </c>
     </row>
     <row r="247" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
@@ -12725,7 +13488,10 @@
       <c r="G247" s="1">
         <v>0</v>
       </c>
-      <c r="H247" s="1"/>
+      <c r="H247" s="1">
+        <f t="shared" si="3"/>
+        <v>6.8857142857142861</v>
+      </c>
     </row>
     <row r="248" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
@@ -12749,7 +13515,10 @@
       <c r="G248" s="1">
         <v>0</v>
       </c>
-      <c r="H248" s="1"/>
+      <c r="H248" s="1">
+        <f t="shared" si="3"/>
+        <v>14.117647058823529</v>
+      </c>
     </row>
     <row r="249" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
@@ -12773,7 +13542,10 @@
       <c r="G249" s="1">
         <v>0</v>
       </c>
-      <c r="H249" s="1"/>
+      <c r="H249" s="1">
+        <f t="shared" si="3"/>
+        <v>7.0588235294117645</v>
+      </c>
     </row>
     <row r="250" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
@@ -12797,7 +13569,10 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-      <c r="H250" s="1"/>
+      <c r="H250" s="1">
+        <f t="shared" si="3"/>
+        <v>4.76</v>
+      </c>
     </row>
     <row r="251" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
@@ -12821,7 +13596,10 @@
       <c r="G251" s="1">
         <v>0</v>
       </c>
-      <c r="H251" s="1"/>
+      <c r="H251" s="1">
+        <f t="shared" si="3"/>
+        <v>6.583333333333333</v>
+      </c>
     </row>
     <row r="252" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
@@ -12845,7 +13623,10 @@
       <c r="G252" s="1">
         <v>2</v>
       </c>
-      <c r="H252" s="1"/>
+      <c r="H252" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6857142857142859</v>
+      </c>
     </row>
     <row r="253" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
@@ -12869,7 +13650,10 @@
       <c r="G253" s="1">
         <v>0</v>
       </c>
-      <c r="H253" s="1"/>
+      <c r="H253" s="1">
+        <f t="shared" si="3"/>
+        <v>8.884615384615385</v>
+      </c>
     </row>
     <row r="254" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
@@ -12893,7 +13677,10 @@
       <c r="G254" s="1">
         <v>0</v>
       </c>
-      <c r="H254" s="1"/>
+      <c r="H254" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2142857142857135</v>
+      </c>
     </row>
     <row r="255" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
@@ -12917,7 +13704,10 @@
       <c r="G255" s="1">
         <v>0</v>
       </c>
-      <c r="H255" s="1"/>
+      <c r="H255" s="1">
+        <f t="shared" si="3"/>
+        <v>5.75</v>
+      </c>
     </row>
     <row r="256" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
@@ -12941,7 +13731,10 @@
       <c r="G256" s="1">
         <v>0</v>
       </c>
-      <c r="H256" s="1"/>
+      <c r="H256" s="1">
+        <f t="shared" si="3"/>
+        <v>10.904761904761905</v>
+      </c>
     </row>
     <row r="257" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
@@ -12965,7 +13758,10 @@
       <c r="G257" s="1">
         <v>0</v>
       </c>
-      <c r="H257" s="1"/>
+      <c r="H257" s="1">
+        <f t="shared" si="3"/>
+        <v>7.387096774193548</v>
+      </c>
     </row>
     <row r="258" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
@@ -12989,7 +13785,10 @@
       <c r="G258" s="1">
         <v>0</v>
       </c>
-      <c r="H258" s="1"/>
+      <c r="H258" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3611111111111107</v>
+      </c>
     </row>
     <row r="259" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
@@ -13013,7 +13812,10 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-      <c r="H259" s="1"/>
+      <c r="H259" s="1">
+        <f t="shared" ref="H259:H322" si="4">AVERAGE(D259/E259)</f>
+        <v>12.666666666666666</v>
+      </c>
     </row>
     <row r="260" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
@@ -13037,7 +13839,10 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-      <c r="H260" s="1"/>
+      <c r="H260" s="1">
+        <f t="shared" si="4"/>
+        <v>8.1071428571428577</v>
+      </c>
     </row>
     <row r="261" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
@@ -13061,7 +13866,10 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-      <c r="H261" s="1"/>
+      <c r="H261" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1363636363636367</v>
+      </c>
     </row>
     <row r="262" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
@@ -13085,7 +13893,10 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-      <c r="H262" s="1"/>
+      <c r="H262" s="1">
+        <f t="shared" si="4"/>
+        <v>7.9642857142857144</v>
+      </c>
     </row>
     <row r="263" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
@@ -13109,7 +13920,10 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263" s="1"/>
+      <c r="H263" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
     </row>
     <row r="264" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
@@ -13133,7 +13947,10 @@
       <c r="G264" s="1">
         <v>0</v>
       </c>
-      <c r="H264" s="1"/>
+      <c r="H264" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7368421052631575</v>
+      </c>
     </row>
     <row r="265" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
@@ -13157,7 +13974,10 @@
       <c r="G265" s="1">
         <v>0</v>
       </c>
-      <c r="H265" s="1"/>
+      <c r="H265" s="1">
+        <f t="shared" si="4"/>
+        <v>4.541666666666667</v>
+      </c>
     </row>
     <row r="266" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
@@ -13181,7 +14001,10 @@
       <c r="G266" s="1">
         <v>0</v>
       </c>
-      <c r="H266" s="1"/>
+      <c r="H266" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2439024390243905</v>
+      </c>
     </row>
     <row r="267" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
@@ -13205,7 +14028,10 @@
       <c r="G267" s="1">
         <v>4</v>
       </c>
-      <c r="H267" s="1"/>
+      <c r="H267" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9767441860465116</v>
+      </c>
     </row>
     <row r="268" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
@@ -13229,7 +14055,10 @@
       <c r="G268" s="1">
         <v>0</v>
       </c>
-      <c r="H268" s="1"/>
+      <c r="H268" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7837837837837842</v>
+      </c>
     </row>
     <row r="269" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
@@ -13253,7 +14082,10 @@
       <c r="G269" s="1">
         <v>0</v>
       </c>
-      <c r="H269" s="1"/>
+      <c r="H269" s="1">
+        <f t="shared" si="4"/>
+        <v>7.6071428571428568</v>
+      </c>
     </row>
     <row r="270" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
@@ -13277,7 +14109,10 @@
       <c r="G270" s="1">
         <v>0</v>
       </c>
-      <c r="H270" s="1"/>
+      <c r="H270" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2750000000000004</v>
+      </c>
     </row>
     <row r="271" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
@@ -13301,7 +14136,10 @@
       <c r="G271" s="1">
         <v>4</v>
       </c>
-      <c r="H271" s="1"/>
+      <c r="H271" s="1">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
     </row>
     <row r="272" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
@@ -13325,7 +14163,10 @@
       <c r="G272" s="1">
         <v>0</v>
       </c>
-      <c r="H272" s="1"/>
+      <c r="H272" s="1">
+        <f t="shared" si="4"/>
+        <v>5.9142857142857146</v>
+      </c>
     </row>
     <row r="273" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
@@ -13349,7 +14190,10 @@
       <c r="G273" s="1">
         <v>0</v>
       </c>
-      <c r="H273" s="1"/>
+      <c r="H273" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0294117647058822</v>
+      </c>
     </row>
     <row r="274" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
@@ -13373,7 +14217,10 @@
       <c r="G274" s="1">
         <v>0</v>
       </c>
-      <c r="H274" s="1"/>
+      <c r="H274" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3617021276595747</v>
+      </c>
     </row>
     <row r="275" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
@@ -13397,7 +14244,10 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-      <c r="H275" s="1"/>
+      <c r="H275" s="1">
+        <f t="shared" si="4"/>
+        <v>7.25</v>
+      </c>
     </row>
     <row r="276" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
@@ -13421,7 +14271,10 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-      <c r="H276" s="1"/>
+      <c r="H276" s="1">
+        <f t="shared" si="4"/>
+        <v>10.631578947368421</v>
+      </c>
     </row>
     <row r="277" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
@@ -13445,7 +14298,10 @@
       <c r="G277" s="1">
         <v>0</v>
       </c>
-      <c r="H277" s="1"/>
+      <c r="H277" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4444444444444446</v>
+      </c>
     </row>
     <row r="278" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
@@ -13469,7 +14325,10 @@
       <c r="G278" s="1">
         <v>0</v>
       </c>
-      <c r="H278" s="1"/>
+      <c r="H278" s="1">
+        <f t="shared" si="4"/>
+        <v>4.3695652173913047</v>
+      </c>
     </row>
     <row r="279" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
@@ -13493,7 +14352,10 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-      <c r="H279" s="1"/>
+      <c r="H279" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2340425531914896</v>
+      </c>
     </row>
     <row r="280" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
@@ -13517,7 +14379,10 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-      <c r="H280" s="1"/>
+      <c r="H280" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4444444444444446</v>
+      </c>
     </row>
     <row r="281" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
@@ -13541,7 +14406,10 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-      <c r="H281" s="1"/>
+      <c r="H281" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="282" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
@@ -13565,7 +14433,10 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-      <c r="H282" s="1"/>
+      <c r="H282" s="1">
+        <f t="shared" si="4"/>
+        <v>4.1702127659574471</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
@@ -13589,7 +14460,10 @@
       <c r="G283" s="1">
         <v>0</v>
       </c>
-      <c r="H283" s="1"/>
+      <c r="H283" s="1">
+        <f t="shared" si="4"/>
+        <v>3.129032258064516</v>
+      </c>
     </row>
     <row r="284" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
@@ -13613,7 +14487,10 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-      <c r="H284" s="1"/>
+      <c r="H284" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7878787878787881</v>
+      </c>
     </row>
     <row r="285" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
@@ -13637,7 +14514,10 @@
       <c r="G285" s="1">
         <v>0</v>
       </c>
-      <c r="H285" s="1"/>
+      <c r="H285" s="1">
+        <f t="shared" si="4"/>
+        <v>5.1621621621621623</v>
+      </c>
     </row>
     <row r="286" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
@@ -13661,7 +14541,10 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-      <c r="H286" s="1"/>
+      <c r="H286" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="287" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
@@ -13685,7 +14568,10 @@
       <c r="G287" s="1">
         <v>0</v>
       </c>
-      <c r="H287" s="1"/>
+      <c r="H287" s="1">
+        <f t="shared" si="4"/>
+        <v>6.032258064516129</v>
+      </c>
     </row>
     <row r="288" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
@@ -13709,7 +14595,10 @@
       <c r="G288" s="1">
         <v>0</v>
       </c>
-      <c r="H288" s="1"/>
+      <c r="H288" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5609756097560972</v>
+      </c>
     </row>
     <row r="289" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
@@ -13733,7 +14622,10 @@
       <c r="G289" s="1">
         <v>0</v>
       </c>
-      <c r="H289" s="1"/>
+      <c r="H289" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8888888888888893</v>
+      </c>
     </row>
     <row r="290" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
@@ -13757,7 +14649,10 @@
       <c r="G290" s="1">
         <v>0</v>
       </c>
-      <c r="H290" s="1"/>
+      <c r="H290" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9574468085106385</v>
+      </c>
     </row>
     <row r="291" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
@@ -13781,7 +14676,10 @@
       <c r="G291" s="1">
         <v>0</v>
       </c>
-      <c r="H291" s="1"/>
+      <c r="H291" s="1">
+        <f t="shared" si="4"/>
+        <v>14.076923076923077</v>
+      </c>
     </row>
     <row r="292" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
@@ -13805,7 +14703,10 @@
       <c r="G292" s="1">
         <v>0</v>
       </c>
-      <c r="H292" s="1"/>
+      <c r="H292" s="1">
+        <f t="shared" si="4"/>
+        <v>9.0500000000000007</v>
+      </c>
     </row>
     <row r="293" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
@@ -13829,7 +14730,10 @@
       <c r="G293" s="1">
         <v>2</v>
       </c>
-      <c r="H293" s="1"/>
+      <c r="H293" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="294" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
@@ -13853,7 +14757,10 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-      <c r="H294" s="1"/>
+      <c r="H294" s="1">
+        <f t="shared" si="4"/>
+        <v>8.9499999999999993</v>
+      </c>
     </row>
     <row r="295" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
@@ -13877,7 +14784,10 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-      <c r="H295" s="1"/>
+      <c r="H295" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7291666666666665</v>
+      </c>
     </row>
     <row r="296" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
@@ -13901,7 +14811,10 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-      <c r="H296" s="1"/>
+      <c r="H296" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4901960784313726</v>
+      </c>
     </row>
     <row r="297" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
@@ -13925,7 +14838,10 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-      <c r="H297" s="1"/>
+      <c r="H297" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5128205128205128</v>
+      </c>
     </row>
     <row r="298" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
@@ -13949,7 +14865,10 @@
       <c r="G298" s="1">
         <v>0</v>
       </c>
-      <c r="H298" s="1"/>
+      <c r="H298" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6666666666666665</v>
+      </c>
     </row>
     <row r="299" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
@@ -13973,7 +14892,10 @@
       <c r="G299" s="1">
         <v>0</v>
       </c>
-      <c r="H299" s="1"/>
+      <c r="H299" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0892857142857144</v>
+      </c>
     </row>
     <row r="300" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
@@ -13997,7 +14919,10 @@
       <c r="G300" s="1">
         <v>0</v>
       </c>
-      <c r="H300" s="1"/>
+      <c r="H300" s="1">
+        <f t="shared" si="4"/>
+        <v>5.5483870967741939</v>
+      </c>
     </row>
     <row r="301" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
@@ -14021,7 +14946,10 @@
       <c r="G301" s="1">
         <v>0</v>
       </c>
-      <c r="H301" s="1"/>
+      <c r="H301" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9142857142857146</v>
+      </c>
     </row>
     <row r="302" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
@@ -14045,7 +14973,10 @@
       <c r="G302" s="1">
         <v>0</v>
       </c>
-      <c r="H302" s="1"/>
+      <c r="H302" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5500000000000007</v>
+      </c>
     </row>
     <row r="303" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
@@ -14069,7 +15000,10 @@
       <c r="G303" s="1">
         <v>0</v>
       </c>
-      <c r="H303" s="1"/>
+      <c r="H303" s="1">
+        <f t="shared" si="4"/>
+        <v>4.75</v>
+      </c>
     </row>
     <row r="304" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
@@ -14093,7 +15027,10 @@
       <c r="G304" s="1">
         <v>0</v>
       </c>
-      <c r="H304" s="1"/>
+      <c r="H304" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8571428571428568</v>
+      </c>
     </row>
     <row r="305" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
@@ -14117,7 +15054,10 @@
       <c r="G305" s="1">
         <v>0</v>
       </c>
-      <c r="H305" s="1"/>
+      <c r="H305" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6170212765957448</v>
+      </c>
     </row>
     <row r="306" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
@@ -14141,7 +15081,10 @@
       <c r="G306" s="1">
         <v>0</v>
       </c>
-      <c r="H306" s="1"/>
+      <c r="H306" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4693877551020407</v>
+      </c>
     </row>
     <row r="307" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
@@ -14165,7 +15108,10 @@
       <c r="G307" s="1">
         <v>0</v>
       </c>
-      <c r="H307" s="1"/>
+      <c r="H307" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9302325581395348</v>
+      </c>
     </row>
     <row r="308" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
@@ -14189,7 +15135,10 @@
       <c r="G308" s="1">
         <v>0</v>
       </c>
-      <c r="H308" s="1"/>
+      <c r="H308" s="1">
+        <f t="shared" si="4"/>
+        <v>4.7714285714285714</v>
+      </c>
     </row>
     <row r="309" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
@@ -14213,7 +15162,10 @@
       <c r="G309" s="1">
         <v>4</v>
       </c>
-      <c r="H309" s="1"/>
+      <c r="H309" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2820512820512819</v>
+      </c>
     </row>
     <row r="310" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
@@ -14237,7 +15189,10 @@
       <c r="G310" s="1">
         <v>0</v>
       </c>
-      <c r="H310" s="1"/>
+      <c r="H310" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5869565217391304</v>
+      </c>
     </row>
     <row r="311" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
@@ -14261,7 +15216,10 @@
       <c r="G311" s="1">
         <v>0</v>
       </c>
-      <c r="H311" s="1"/>
+      <c r="H311" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8139534883720931</v>
+      </c>
     </row>
     <row r="312" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
@@ -14285,7 +15243,10 @@
       <c r="G312" s="1">
         <v>2</v>
       </c>
-      <c r="H312" s="1"/>
+      <c r="H312" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7272727272727271</v>
+      </c>
     </row>
     <row r="313" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
@@ -14309,7 +15270,10 @@
       <c r="G313" s="1">
         <v>0</v>
       </c>
-      <c r="H313" s="1"/>
+      <c r="H313" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2894736842105265</v>
+      </c>
     </row>
     <row r="314" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
@@ -14333,7 +15297,10 @@
       <c r="G314" s="1">
         <v>0</v>
       </c>
-      <c r="H314" s="1"/>
+      <c r="H314" s="1">
+        <f t="shared" si="4"/>
+        <v>4.05</v>
+      </c>
     </row>
     <row r="315" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
@@ -14357,7 +15324,10 @@
       <c r="G315" s="1">
         <v>0</v>
       </c>
-      <c r="H315" s="1"/>
+      <c r="H315" s="1">
+        <f t="shared" si="4"/>
+        <v>13.416666666666666</v>
+      </c>
     </row>
     <row r="316" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
@@ -14381,7 +15351,10 @@
       <c r="G316" s="1">
         <v>2</v>
       </c>
-      <c r="H316" s="1"/>
+      <c r="H316" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8333333333333335</v>
+      </c>
     </row>
     <row r="317" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
@@ -14405,7 +15378,10 @@
       <c r="G317" s="1">
         <v>0</v>
       </c>
-      <c r="H317" s="1"/>
+      <c r="H317" s="1">
+        <f t="shared" si="4"/>
+        <v>6.1538461538461542</v>
+      </c>
     </row>
     <row r="318" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
@@ -14429,7 +15405,10 @@
       <c r="G318" s="1">
         <v>0</v>
       </c>
-      <c r="H318" s="1"/>
+      <c r="H318" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2653061224489797</v>
+      </c>
     </row>
     <row r="319" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
@@ -14453,7 +15432,10 @@
       <c r="G319" s="1">
         <v>0</v>
       </c>
-      <c r="H319" s="1"/>
+      <c r="H319" s="1">
+        <f t="shared" si="4"/>
+        <v>5.4482758620689653</v>
+      </c>
     </row>
     <row r="320" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
@@ -14477,7 +15459,10 @@
       <c r="G320" s="1">
         <v>1</v>
       </c>
-      <c r="H320" s="1"/>
+      <c r="H320" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2702702702702702</v>
+      </c>
     </row>
     <row r="321" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
@@ -14501,7 +15486,10 @@
       <c r="G321" s="1">
         <v>0</v>
       </c>
-      <c r="H321" s="1"/>
+      <c r="H321" s="1">
+        <f t="shared" si="4"/>
+        <v>3.16</v>
+      </c>
     </row>
     <row r="322" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
@@ -14525,7 +15513,10 @@
       <c r="G322" s="1">
         <v>0</v>
       </c>
-      <c r="H322" s="1"/>
+      <c r="H322" s="1">
+        <f t="shared" si="4"/>
+        <v>5.7407407407407405</v>
+      </c>
     </row>
     <row r="323" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
@@ -14549,7 +15540,10 @@
       <c r="G323" s="1">
         <v>0</v>
       </c>
-      <c r="H323" s="1"/>
+      <c r="H323" s="1">
+        <f t="shared" ref="H323:H386" si="5">AVERAGE(D323/E323)</f>
+        <v>9.0588235294117645</v>
+      </c>
     </row>
     <row r="324" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
@@ -14573,7 +15567,10 @@
       <c r="G324" s="1">
         <v>0</v>
       </c>
-      <c r="H324" s="1"/>
+      <c r="H324" s="1">
+        <f t="shared" si="5"/>
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="325" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
@@ -14597,7 +15594,10 @@
       <c r="G325" s="1">
         <v>0</v>
       </c>
-      <c r="H325" s="1"/>
+      <c r="H325" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7560975609756095</v>
+      </c>
     </row>
     <row r="326" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
@@ -14621,7 +15621,10 @@
       <c r="G326" s="1">
         <v>0</v>
       </c>
-      <c r="H326" s="1"/>
+      <c r="H326" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4444444444444446</v>
+      </c>
     </row>
     <row r="327" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
@@ -14645,7 +15648,10 @@
       <c r="G327" s="1">
         <v>0</v>
       </c>
-      <c r="H327" s="1"/>
+      <c r="H327" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5116279069767442</v>
+      </c>
     </row>
     <row r="328" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
@@ -14669,7 +15675,10 @@
       <c r="G328" s="1">
         <v>0</v>
       </c>
-      <c r="H328" s="1"/>
+      <c r="H328" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0816326530612246</v>
+      </c>
     </row>
     <row r="329" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
@@ -14693,7 +15702,10 @@
       <c r="G329" s="1">
         <v>0</v>
       </c>
-      <c r="H329" s="1"/>
+      <c r="H329" s="1">
+        <f t="shared" si="5"/>
+        <v>7.45</v>
+      </c>
     </row>
     <row r="330" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
@@ -14717,7 +15729,10 @@
       <c r="G330" s="1">
         <v>0</v>
       </c>
-      <c r="H330" s="1"/>
+      <c r="H330" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3636363636363638</v>
+      </c>
     </row>
     <row r="331" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
@@ -14741,7 +15756,10 @@
       <c r="G331" s="1">
         <v>0</v>
       </c>
-      <c r="H331" s="1"/>
+      <c r="H331" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3953488372093021</v>
+      </c>
     </row>
     <row r="332" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
@@ -14765,7 +15783,10 @@
       <c r="G332" s="1">
         <v>0</v>
       </c>
-      <c r="H332" s="1"/>
+      <c r="H332" s="1">
+        <f t="shared" si="5"/>
+        <v>4.645161290322581</v>
+      </c>
     </row>
     <row r="333" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
@@ -14789,7 +15810,10 @@
       <c r="G333" s="1">
         <v>3</v>
       </c>
-      <c r="H333" s="1"/>
+      <c r="H333" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3488372093023258</v>
+      </c>
     </row>
     <row r="334" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
@@ -14813,7 +15837,10 @@
       <c r="G334" s="1">
         <v>0</v>
       </c>
-      <c r="H334" s="1"/>
+      <c r="H334" s="1">
+        <f t="shared" si="5"/>
+        <v>4.612903225806452</v>
+      </c>
     </row>
     <row r="335" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
@@ -14837,7 +15864,10 @@
       <c r="G335" s="1">
         <v>0</v>
       </c>
-      <c r="H335" s="1"/>
+      <c r="H335" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4047619047619047</v>
+      </c>
     </row>
     <row r="336" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
@@ -14861,7 +15891,10 @@
       <c r="G336" s="1">
         <v>2</v>
       </c>
-      <c r="H336" s="1"/>
+      <c r="H336" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="337" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
@@ -14885,7 +15918,10 @@
       <c r="G337" s="1">
         <v>0</v>
       </c>
-      <c r="H337" s="1"/>
+      <c r="H337" s="1">
+        <f t="shared" si="5"/>
+        <v>4.375</v>
+      </c>
     </row>
     <row r="338" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
@@ -14909,7 +15945,10 @@
       <c r="G338" s="1">
         <v>0</v>
       </c>
-      <c r="H338" s="1"/>
+      <c r="H338" s="1">
+        <f t="shared" si="5"/>
+        <v>6.9</v>
+      </c>
     </row>
     <row r="339" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
@@ -14933,7 +15972,10 @@
       <c r="G339" s="1">
         <v>0</v>
       </c>
-      <c r="H339" s="1"/>
+      <c r="H339" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2093023255813953</v>
+      </c>
     </row>
     <row r="340" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
@@ -14957,7 +15999,10 @@
       <c r="G340" s="1">
         <v>0</v>
       </c>
-      <c r="H340" s="1"/>
+      <c r="H340" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0444444444444443</v>
+      </c>
     </row>
     <row r="341" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
@@ -14981,7 +16026,10 @@
       <c r="G341" s="1">
         <v>0</v>
       </c>
-      <c r="H341" s="1"/>
+      <c r="H341" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
     </row>
     <row r="342" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
@@ -15005,7 +16053,10 @@
       <c r="G342" s="1">
         <v>1</v>
       </c>
-      <c r="H342" s="1"/>
+      <c r="H342" s="1">
+        <f t="shared" si="5"/>
+        <v>4.32258064516129</v>
+      </c>
     </row>
     <row r="343" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
@@ -15029,7 +16080,10 @@
       <c r="G343" s="1">
         <v>2</v>
       </c>
-      <c r="H343" s="1"/>
+      <c r="H343" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1875</v>
+      </c>
     </row>
     <row r="344" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
@@ -15053,7 +16107,10 @@
       <c r="G344" s="1">
         <v>0</v>
       </c>
-      <c r="H344" s="1"/>
+      <c r="H344" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1162790697674421</v>
+      </c>
     </row>
     <row r="345" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
@@ -15077,7 +16134,10 @@
       <c r="G345" s="1">
         <v>0</v>
       </c>
-      <c r="H345" s="1"/>
+      <c r="H345" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7708333333333335</v>
+      </c>
     </row>
     <row r="346" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
@@ -15101,7 +16161,10 @@
       <c r="G346" s="1">
         <v>2</v>
       </c>
-      <c r="H346" s="1"/>
+      <c r="H346" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0232558139534884</v>
+      </c>
     </row>
     <row r="347" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
@@ -15125,7 +16188,10 @@
       <c r="G347" s="1">
         <v>0</v>
       </c>
-      <c r="H347" s="1"/>
+      <c r="H347" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6086956521739131</v>
+      </c>
     </row>
     <row r="348" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
@@ -15149,7 +16215,10 @@
       <c r="G348" s="1">
         <v>0</v>
       </c>
-      <c r="H348" s="1"/>
+      <c r="H348" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4594594594594597</v>
+      </c>
     </row>
     <row r="349" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
@@ -15173,7 +16242,10 @@
       <c r="G349" s="1">
         <v>3</v>
       </c>
-      <c r="H349" s="1"/>
+      <c r="H349" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8444444444444446</v>
+      </c>
     </row>
     <row r="350" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
@@ -15197,7 +16269,10 @@
       <c r="G350" s="1">
         <v>0</v>
       </c>
-      <c r="H350" s="1"/>
+      <c r="H350" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8444444444444446</v>
+      </c>
     </row>
     <row r="351" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
@@ -15221,7 +16296,10 @@
       <c r="G351" s="1">
         <v>0</v>
       </c>
-      <c r="H351" s="1"/>
+      <c r="H351" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4324324324324325</v>
+      </c>
     </row>
     <row r="352" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
@@ -15245,7 +16323,10 @@
       <c r="G352" s="1">
         <v>1</v>
       </c>
-      <c r="H352" s="1"/>
+      <c r="H352" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8636363636363638</v>
+      </c>
     </row>
     <row r="353" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
@@ -15269,7 +16350,10 @@
       <c r="G353" s="1">
         <v>0</v>
       </c>
-      <c r="H353" s="1"/>
+      <c r="H353" s="1">
+        <f t="shared" si="5"/>
+        <v>5.9523809523809526</v>
+      </c>
     </row>
     <row r="354" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
@@ -15293,7 +16377,10 @@
       <c r="G354" s="1">
         <v>0</v>
       </c>
-      <c r="H354" s="1"/>
+      <c r="H354" s="1">
+        <f t="shared" si="5"/>
+        <v>3.125</v>
+      </c>
     </row>
     <row r="355" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
@@ -15317,7 +16404,10 @@
       <c r="G355" s="1">
         <v>0</v>
       </c>
-      <c r="H355" s="1"/>
+      <c r="H355" s="1">
+        <f t="shared" si="5"/>
+        <v>3.125</v>
+      </c>
     </row>
     <row r="356" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
@@ -15341,7 +16431,10 @@
       <c r="G356" s="1">
         <v>0</v>
       </c>
-      <c r="H356" s="1"/>
+      <c r="H356" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9069767441860463</v>
+      </c>
     </row>
     <row r="357" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
@@ -15365,7 +16458,10 @@
       <c r="G357" s="1">
         <v>0</v>
       </c>
-      <c r="H357" s="1"/>
+      <c r="H357" s="1">
+        <f t="shared" si="5"/>
+        <v>4.0666666666666664</v>
+      </c>
     </row>
     <row r="358" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
@@ -15389,7 +16485,10 @@
       <c r="G358" s="1">
         <v>2</v>
       </c>
-      <c r="H358" s="1"/>
+      <c r="H358" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4857142857142858</v>
+      </c>
     </row>
     <row r="359" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
@@ -15413,7 +16512,10 @@
       <c r="G359" s="1">
         <v>0</v>
       </c>
-      <c r="H359" s="1"/>
+      <c r="H359" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2105263157894739</v>
+      </c>
     </row>
     <row r="360" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
@@ -15437,7 +16539,10 @@
       <c r="G360" s="1">
         <v>0</v>
       </c>
-      <c r="H360" s="1"/>
+      <c r="H360" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1282051282051282</v>
+      </c>
     </row>
     <row r="361" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
@@ -15461,7 +16566,10 @@
       <c r="G361" s="1">
         <v>0</v>
       </c>
-      <c r="H361" s="1"/>
+      <c r="H361" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2432432432432434</v>
+      </c>
     </row>
     <row r="362" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
@@ -15485,7 +16593,10 @@
       <c r="G362" s="1">
         <v>3</v>
       </c>
-      <c r="H362" s="1"/>
+      <c r="H362" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1428571428571428</v>
+      </c>
     </row>
     <row r="363" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
@@ -15509,7 +16620,10 @@
       <c r="G363" s="1">
         <v>2</v>
       </c>
-      <c r="H363" s="1"/>
+      <c r="H363" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0512820512820511</v>
+      </c>
     </row>
     <row r="364" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
@@ -15533,7 +16647,10 @@
       <c r="G364" s="1">
         <v>1</v>
       </c>
-      <c r="H364" s="1"/>
+      <c r="H364" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9024390243902438</v>
+      </c>
     </row>
     <row r="365" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
@@ -15557,7 +16674,10 @@
       <c r="G365" s="1">
         <v>0</v>
       </c>
-      <c r="H365" s="1"/>
+      <c r="H365" s="1">
+        <f t="shared" si="5"/>
+        <v>2.4583333333333335</v>
+      </c>
     </row>
     <row r="366" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
@@ -15581,7 +16701,10 @@
       <c r="G366" s="1">
         <v>0</v>
       </c>
-      <c r="H366" s="1"/>
+      <c r="H366" s="1">
+        <f t="shared" si="5"/>
+        <v>4.833333333333333</v>
+      </c>
     </row>
     <row r="367" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
@@ -15605,7 +16728,10 @@
       <c r="G367" s="1">
         <v>0</v>
       </c>
-      <c r="H367" s="1"/>
+      <c r="H367" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1081081081081079</v>
+      </c>
     </row>
     <row r="368" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
@@ -15629,7 +16755,10 @@
       <c r="G368" s="1">
         <v>0</v>
       </c>
-      <c r="H368" s="1"/>
+      <c r="H368" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8333333333333335</v>
+      </c>
     </row>
     <row r="369" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
@@ -15653,7 +16782,10 @@
       <c r="G369" s="1">
         <v>0</v>
       </c>
-      <c r="H369" s="1"/>
+      <c r="H369" s="1">
+        <f t="shared" si="5"/>
+        <v>3.9310344827586206</v>
+      </c>
     </row>
     <row r="370" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
@@ -15677,7 +16809,10 @@
       <c r="G370" s="1">
         <v>0</v>
       </c>
-      <c r="H370" s="1"/>
+      <c r="H370" s="1">
+        <f t="shared" si="5"/>
+        <v>2.85</v>
+      </c>
     </row>
     <row r="371" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
@@ -15701,7 +16836,10 @@
       <c r="G371" s="1">
         <v>0</v>
       </c>
-      <c r="H371" s="1"/>
+      <c r="H371" s="1">
+        <f t="shared" si="5"/>
+        <v>2.7804878048780486</v>
+      </c>
     </row>
     <row r="372" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
@@ -15725,7 +16863,10 @@
       <c r="G372" s="1">
         <v>0</v>
       </c>
-      <c r="H372" s="1"/>
+      <c r="H372" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1851851851851851</v>
+      </c>
     </row>
     <row r="373" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
@@ -15749,7 +16890,10 @@
       <c r="G373" s="1">
         <v>0</v>
       </c>
-      <c r="H373" s="1"/>
+      <c r="H373" s="1">
+        <f t="shared" si="5"/>
+        <v>3.53125</v>
+      </c>
     </row>
     <row r="374" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
@@ -15773,7 +16917,10 @@
       <c r="G374" s="1">
         <v>0</v>
       </c>
-      <c r="H374" s="1"/>
+      <c r="H374" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4242424242424243</v>
+      </c>
     </row>
     <row r="375" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
@@ -15797,7 +16944,10 @@
       <c r="G375" s="1">
         <v>0</v>
       </c>
-      <c r="H375" s="1"/>
+      <c r="H375" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="376" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
@@ -15821,7 +16971,10 @@
       <c r="G376" s="1">
         <v>0</v>
       </c>
-      <c r="H376" s="1"/>
+      <c r="H376" s="1">
+        <f t="shared" si="5"/>
+        <v>3.393939393939394</v>
+      </c>
     </row>
     <row r="377" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
@@ -15845,7 +16998,10 @@
       <c r="G377" s="1">
         <v>0</v>
       </c>
-      <c r="H377" s="1"/>
+      <c r="H377" s="1">
+        <f t="shared" si="5"/>
+        <v>7.4</v>
+      </c>
     </row>
     <row r="378" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
@@ -15869,7 +17025,10 @@
       <c r="G378" s="1">
         <v>0</v>
       </c>
-      <c r="H378" s="1"/>
+      <c r="H378" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2857142857142856</v>
+      </c>
     </row>
     <row r="379" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
@@ -15893,7 +17052,10 @@
       <c r="G379" s="1">
         <v>0</v>
       </c>
-      <c r="H379" s="1"/>
+      <c r="H379" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7</v>
+      </c>
     </row>
     <row r="380" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
@@ -15917,7 +17079,10 @@
       <c r="G380" s="1">
         <v>0</v>
       </c>
-      <c r="H380" s="1"/>
+      <c r="H380" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4705882352941178</v>
+      </c>
     </row>
     <row r="381" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
@@ -15941,7 +17106,10 @@
       <c r="G381" s="1">
         <v>0</v>
       </c>
-      <c r="H381" s="1"/>
+      <c r="H381" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8947368421052633</v>
+      </c>
     </row>
     <row r="382" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
@@ -15965,7 +17133,10 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-      <c r="H382" s="1"/>
+      <c r="H382" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1142857142857143</v>
+      </c>
     </row>
     <row r="383" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
@@ -15989,7 +17160,10 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-      <c r="H383" s="1"/>
+      <c r="H383" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8684210526315788</v>
+      </c>
     </row>
     <row r="384" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
@@ -16013,7 +17187,10 @@
       <c r="G384" s="1">
         <v>0</v>
       </c>
-      <c r="H384" s="1"/>
+      <c r="H384" s="1">
+        <f t="shared" si="5"/>
+        <v>3.8571428571428572</v>
+      </c>
     </row>
     <row r="385" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
@@ -16037,7 +17214,10 @@
       <c r="G385" s="1">
         <v>1</v>
       </c>
-      <c r="H385" s="1"/>
+      <c r="H385" s="1">
+        <f t="shared" si="5"/>
+        <v>2.9189189189189189</v>
+      </c>
     </row>
     <row r="386" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
@@ -16061,7 +17241,10 @@
       <c r="G386" s="1">
         <v>2</v>
       </c>
-      <c r="H386" s="1"/>
+      <c r="H386" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5116279069767442</v>
+      </c>
     </row>
     <row r="387" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
@@ -16085,7 +17268,10 @@
       <c r="G387" s="1">
         <v>0</v>
       </c>
-      <c r="H387" s="1"/>
+      <c r="H387" s="1">
+        <f t="shared" ref="H387:H450" si="6">AVERAGE(D387/E387)</f>
+        <v>5.6315789473684212</v>
+      </c>
     </row>
     <row r="388" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
@@ -16109,7 +17295,10 @@
       <c r="G388" s="1">
         <v>0</v>
       </c>
-      <c r="H388" s="1"/>
+      <c r="H388" s="1">
+        <f t="shared" si="6"/>
+        <v>5.35</v>
+      </c>
     </row>
     <row r="389" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
@@ -16133,7 +17322,10 @@
       <c r="G389" s="1">
         <v>0</v>
       </c>
-      <c r="H389" s="1"/>
+      <c r="H389" s="1">
+        <f t="shared" si="6"/>
+        <v>5.35</v>
+      </c>
     </row>
     <row r="390" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
@@ -16157,7 +17349,10 @@
       <c r="G390" s="1">
         <v>0</v>
       </c>
-      <c r="H390" s="1"/>
+      <c r="H390" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9629629629629628</v>
+      </c>
     </row>
     <row r="391" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
@@ -16181,7 +17376,10 @@
       <c r="G391" s="1">
         <v>0</v>
       </c>
-      <c r="H391" s="1"/>
+      <c r="H391" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9722222222222223</v>
+      </c>
     </row>
     <row r="392" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
@@ -16205,7 +17403,10 @@
       <c r="G392" s="1">
         <v>0</v>
       </c>
-      <c r="H392" s="1"/>
+      <c r="H392" s="1">
+        <f t="shared" si="6"/>
+        <v>6.625</v>
+      </c>
     </row>
     <row r="393" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
@@ -16229,7 +17430,10 @@
       <c r="G393" s="1">
         <v>0</v>
       </c>
-      <c r="H393" s="1"/>
+      <c r="H393" s="1">
+        <f t="shared" si="6"/>
+        <v>2.1</v>
+      </c>
     </row>
     <row r="394" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
@@ -16253,7 +17457,10 @@
       <c r="G394" s="1">
         <v>0</v>
       </c>
-      <c r="H394" s="1"/>
+      <c r="H394" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5365853658536586</v>
+      </c>
     </row>
     <row r="395" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
@@ -16277,7 +17484,10 @@
       <c r="G395" s="1">
         <v>0</v>
       </c>
-      <c r="H395" s="1"/>
+      <c r="H395" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4186046511627906</v>
+      </c>
     </row>
     <row r="396" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
@@ -16301,7 +17511,10 @@
       <c r="G396" s="1">
         <v>0</v>
       </c>
-      <c r="H396" s="1"/>
+      <c r="H396" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0392156862745097</v>
+      </c>
     </row>
     <row r="397" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
@@ -16325,7 +17538,10 @@
       <c r="G397" s="1">
         <v>1</v>
       </c>
-      <c r="H397" s="1"/>
+      <c r="H397" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8245614035087718</v>
+      </c>
     </row>
     <row r="398" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
@@ -16349,7 +17565,10 @@
       <c r="G398" s="1">
         <v>0</v>
       </c>
-      <c r="H398" s="1"/>
+      <c r="H398" s="1">
+        <f t="shared" si="6"/>
+        <v>2.7105263157894739</v>
+      </c>
     </row>
     <row r="399" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
@@ -16373,7 +17592,10 @@
       <c r="G399" s="1">
         <v>0</v>
       </c>
-      <c r="H399" s="1"/>
+      <c r="H399" s="1">
+        <f t="shared" si="6"/>
+        <v>3.15625</v>
+      </c>
     </row>
     <row r="400" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
@@ -16397,7 +17619,10 @@
       <c r="G400" s="1">
         <v>2</v>
       </c>
-      <c r="H400" s="1"/>
+      <c r="H400" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8055555555555554</v>
+      </c>
     </row>
     <row r="401" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
@@ -16421,7 +17646,10 @@
       <c r="G401" s="1">
         <v>0</v>
       </c>
-      <c r="H401" s="1"/>
+      <c r="H401" s="1">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="402" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
@@ -16445,7 +17673,10 @@
       <c r="G402" s="1">
         <v>0</v>
       </c>
-      <c r="H402" s="1"/>
+      <c r="H402" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9411764705882355</v>
+      </c>
     </row>
     <row r="403" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
@@ -16469,7 +17700,10 @@
       <c r="G403" s="1">
         <v>0</v>
       </c>
-      <c r="H403" s="1"/>
+      <c r="H403" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223</v>
+      </c>
     </row>
     <row r="404" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
@@ -16493,7 +17727,10 @@
       <c r="G404" s="1">
         <v>0</v>
       </c>
-      <c r="H404" s="1"/>
+      <c r="H404" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="405" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
@@ -16517,7 +17754,10 @@
       <c r="G405" s="1">
         <v>0</v>
       </c>
-      <c r="H405" s="1"/>
+      <c r="H405" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2105263157894735</v>
+      </c>
     </row>
     <row r="406" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
@@ -16541,7 +17781,10 @@
       <c r="G406" s="1">
         <v>0</v>
       </c>
-      <c r="H406" s="1"/>
+      <c r="H406" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8076923076923075</v>
+      </c>
     </row>
     <row r="407" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
@@ -16565,7 +17808,10 @@
       <c r="G407" s="1">
         <v>0</v>
       </c>
-      <c r="H407" s="1"/>
+      <c r="H407" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3023255813953489</v>
+      </c>
     </row>
     <row r="408" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
@@ -16589,7 +17835,10 @@
       <c r="G408" s="1">
         <v>2</v>
       </c>
-      <c r="H408" s="1"/>
+      <c r="H408" s="1">
+        <f t="shared" si="6"/>
+        <v>2.152173913043478</v>
+      </c>
     </row>
     <row r="409" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
@@ -16613,7 +17862,10 @@
       <c r="G409" s="1">
         <v>0</v>
       </c>
-      <c r="H409" s="1"/>
+      <c r="H409" s="1">
+        <f t="shared" si="6"/>
+        <v>2.7714285714285714</v>
+      </c>
     </row>
     <row r="410" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
@@ -16637,7 +17889,10 @@
       <c r="G410" s="1">
         <v>1</v>
       </c>
-      <c r="H410" s="1"/>
+      <c r="H410" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6944444444444446</v>
+      </c>
     </row>
     <row r="411" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
@@ -16661,7 +17916,10 @@
       <c r="G411" s="1">
         <v>0</v>
       </c>
-      <c r="H411" s="1"/>
+      <c r="H411" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6216216216216215</v>
+      </c>
     </row>
     <row r="412" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
@@ -16685,7 +17943,10 @@
       <c r="G412" s="1">
         <v>0</v>
       </c>
-      <c r="H412" s="1"/>
+      <c r="H412" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9090909090909092</v>
+      </c>
     </row>
     <row r="413" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
@@ -16709,7 +17970,10 @@
       <c r="G413" s="1">
         <v>0</v>
       </c>
-      <c r="H413" s="1"/>
+      <c r="H413" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="414" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
@@ -16733,7 +17997,10 @@
       <c r="G414" s="1">
         <v>4</v>
       </c>
-      <c r="H414" s="1"/>
+      <c r="H414" s="1">
+        <f t="shared" si="6"/>
+        <v>2.2857142857142856</v>
+      </c>
     </row>
     <row r="415" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
@@ -16757,7 +18024,10 @@
       <c r="G415" s="1">
         <v>0</v>
       </c>
-      <c r="H415" s="1"/>
+      <c r="H415" s="1">
+        <f t="shared" si="6"/>
+        <v>4.1304347826086953</v>
+      </c>
     </row>
     <row r="416" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
@@ -16781,7 +18051,10 @@
       <c r="G416" s="1">
         <v>0</v>
       </c>
-      <c r="H416" s="1"/>
+      <c r="H416" s="1">
+        <f t="shared" si="6"/>
+        <v>3.6538461538461537</v>
+      </c>
     </row>
     <row r="417" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
@@ -16805,7 +18078,10 @@
       <c r="G417" s="1">
         <v>0</v>
       </c>
-      <c r="H417" s="1"/>
+      <c r="H417" s="1">
+        <f t="shared" si="6"/>
+        <v>3.2758620689655173</v>
+      </c>
     </row>
     <row r="418" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
@@ -16829,7 +18105,10 @@
       <c r="G418" s="1">
         <v>0</v>
       </c>
-      <c r="H418" s="1"/>
+      <c r="H418" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3170731707317072</v>
+      </c>
     </row>
     <row r="419" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
@@ -16853,7 +18132,10 @@
       <c r="G419" s="1">
         <v>0</v>
       </c>
-      <c r="H419" s="1"/>
+      <c r="H419" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4761904761904763</v>
+      </c>
     </row>
     <row r="420" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
@@ -16877,7 +18159,10 @@
       <c r="G420" s="1">
         <v>0</v>
       </c>
-      <c r="H420" s="1"/>
+      <c r="H420" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4814814814814814</v>
+      </c>
     </row>
     <row r="421" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
@@ -16901,7 +18186,10 @@
       <c r="G421" s="1">
         <v>0</v>
       </c>
-      <c r="H421" s="1"/>
+      <c r="H421" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4102564102564101</v>
+      </c>
     </row>
     <row r="422" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
@@ -16925,7 +18213,10 @@
       <c r="G422" s="1">
         <v>0</v>
       </c>
-      <c r="H422" s="1"/>
+      <c r="H422" s="1">
+        <f t="shared" si="6"/>
+        <v>3.4444444444444446</v>
+      </c>
     </row>
     <row r="423" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
@@ -16949,7 +18240,10 @@
       <c r="G423" s="1">
         <v>0</v>
       </c>
-      <c r="H423" s="1"/>
+      <c r="H423" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0666666666666669</v>
+      </c>
     </row>
     <row r="424" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
@@ -16973,7 +18267,10 @@
       <c r="G424" s="1">
         <v>0</v>
       </c>
-      <c r="H424" s="1"/>
+      <c r="H424" s="1">
+        <f t="shared" si="6"/>
+        <v>2.358974358974359</v>
+      </c>
     </row>
     <row r="425" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
@@ -16997,7 +18294,10 @@
       <c r="G425" s="1">
         <v>0</v>
       </c>
-      <c r="H425" s="1"/>
+      <c r="H425" s="1">
+        <f t="shared" si="6"/>
+        <v>5.3529411764705879</v>
+      </c>
     </row>
     <row r="426" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
@@ -17021,7 +18321,10 @@
       <c r="G426" s="1">
         <v>0</v>
       </c>
-      <c r="H426" s="1"/>
+      <c r="H426" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9565217391304346</v>
+      </c>
     </row>
     <row r="427" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
@@ -17045,7 +18348,10 @@
       <c r="G427" s="1">
         <v>0</v>
       </c>
-      <c r="H427" s="1"/>
+      <c r="H427" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9565217391304346</v>
+      </c>
     </row>
     <row r="428" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
@@ -17069,7 +18375,10 @@
       <c r="G428" s="1">
         <v>1</v>
       </c>
-      <c r="H428" s="1"/>
+      <c r="H428" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="429" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
@@ -17093,7 +18402,10 @@
       <c r="G429" s="1">
         <v>0</v>
       </c>
-      <c r="H429" s="1"/>
+      <c r="H429" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8958333333333333</v>
+      </c>
     </row>
     <row r="430" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
@@ -17117,7 +18429,10 @@
       <c r="G430" s="1">
         <v>0</v>
       </c>
-      <c r="H430" s="1"/>
+      <c r="H430" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5714285714285716</v>
+      </c>
     </row>
     <row r="431" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
@@ -17141,7 +18456,10 @@
       <c r="G431" s="1">
         <v>0</v>
       </c>
-      <c r="H431" s="1"/>
+      <c r="H431" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3684210526315788</v>
+      </c>
     </row>
     <row r="432" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
@@ -17165,7 +18483,10 @@
       <c r="G432" s="1">
         <v>0</v>
       </c>
-      <c r="H432" s="1"/>
+      <c r="H432" s="1">
+        <f t="shared" si="6"/>
+        <v>4.2380952380952381</v>
+      </c>
     </row>
     <row r="433" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
@@ -17189,7 +18510,10 @@
       <c r="G433" s="1">
         <v>0</v>
       </c>
-      <c r="H433" s="1"/>
+      <c r="H433" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0454545454545459</v>
+      </c>
     </row>
     <row r="434" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
@@ -17213,7 +18537,10 @@
       <c r="G434" s="1">
         <v>0</v>
       </c>
-      <c r="H434" s="1"/>
+      <c r="H434" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8695652173913042</v>
+      </c>
     </row>
     <row r="435" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
@@ -17237,7 +18564,10 @@
       <c r="G435" s="1">
         <v>0</v>
       </c>
-      <c r="H435" s="1"/>
+      <c r="H435" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="436" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
@@ -17261,7 +18591,10 @@
       <c r="G436" s="1">
         <v>0</v>
       </c>
-      <c r="H436" s="1"/>
+      <c r="H436" s="1">
+        <f t="shared" si="6"/>
+        <v>2.838709677419355</v>
+      </c>
     </row>
     <row r="437" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
@@ -17285,7 +18618,10 @@
       <c r="G437" s="1">
         <v>0</v>
       </c>
-      <c r="H437" s="1"/>
+      <c r="H437" s="1">
+        <f t="shared" si="6"/>
+        <v>1.9130434782608696</v>
+      </c>
     </row>
     <row r="438" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
@@ -17309,7 +18645,10 @@
       <c r="G438" s="1">
         <v>2</v>
       </c>
-      <c r="H438" s="1"/>
+      <c r="H438" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8333333333333333</v>
+      </c>
     </row>
     <row r="439" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
@@ -17333,7 +18672,10 @@
       <c r="G439" s="1">
         <v>0</v>
       </c>
-      <c r="H439" s="1"/>
+      <c r="H439" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7959183673469388</v>
+      </c>
     </row>
     <row r="440" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
@@ -17357,7 +18699,10 @@
       <c r="G440" s="1">
         <v>0</v>
       </c>
-      <c r="H440" s="1"/>
+      <c r="H440" s="1">
+        <f t="shared" si="6"/>
+        <v>3.48</v>
+      </c>
     </row>
     <row r="441" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
@@ -17381,7 +18726,10 @@
       <c r="G441" s="1">
         <v>0</v>
       </c>
-      <c r="H441" s="1"/>
+      <c r="H441" s="1">
+        <f t="shared" si="6"/>
+        <v>2.71875</v>
+      </c>
     </row>
     <row r="442" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
@@ -17405,7 +18753,10 @@
       <c r="G442" s="1">
         <v>0</v>
       </c>
-      <c r="H442" s="1"/>
+      <c r="H442" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3513513513513513</v>
+      </c>
     </row>
     <row r="443" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
@@ -17429,7 +18780,10 @@
       <c r="G443" s="1">
         <v>0</v>
       </c>
-      <c r="H443" s="1"/>
+      <c r="H443" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8125</v>
+      </c>
     </row>
     <row r="444" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
@@ -17453,7 +18807,10 @@
       <c r="G444" s="1">
         <v>0</v>
       </c>
-      <c r="H444" s="1"/>
+      <c r="H444" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9090909090909092</v>
+      </c>
     </row>
     <row r="445" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
@@ -17477,7 +18834,10 @@
       <c r="G445" s="1">
         <v>0</v>
       </c>
-      <c r="H445" s="1"/>
+      <c r="H445" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0975609756097562</v>
+      </c>
     </row>
     <row r="446" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
@@ -17501,7 +18861,10 @@
       <c r="G446" s="1">
         <v>0</v>
       </c>
-      <c r="H446" s="1"/>
+      <c r="H446" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0731707317073171</v>
+      </c>
     </row>
     <row r="447" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
@@ -17525,7 +18888,10 @@
       <c r="G447" s="1">
         <v>0</v>
       </c>
-      <c r="H447" s="1"/>
+      <c r="H447" s="1">
+        <f t="shared" si="6"/>
+        <v>5.25</v>
+      </c>
     </row>
     <row r="448" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
@@ -17549,7 +18915,10 @@
       <c r="G448" s="1">
         <v>0</v>
       </c>
-      <c r="H448" s="1"/>
+      <c r="H448" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4705882352941178</v>
+      </c>
     </row>
     <row r="449" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
@@ -17573,7 +18942,10 @@
       <c r="G449" s="1">
         <v>0</v>
       </c>
-      <c r="H449" s="1"/>
+      <c r="H449" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3055555555555554</v>
+      </c>
     </row>
     <row r="450" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
@@ -17597,7 +18969,10 @@
       <c r="G450" s="1">
         <v>0</v>
       </c>
-      <c r="H450" s="1"/>
+      <c r="H450" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3055555555555554</v>
+      </c>
     </row>
     <row r="451" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
@@ -17621,7 +18996,10 @@
       <c r="G451" s="1">
         <v>0</v>
       </c>
-      <c r="H451" s="1"/>
+      <c r="H451" s="1">
+        <f t="shared" ref="H451:H501" si="7">AVERAGE(D451/E451)</f>
+        <v>2.2432432432432434</v>
+      </c>
     </row>
     <row r="452" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
@@ -17645,7 +19023,10 @@
       <c r="G452" s="1">
         <v>0</v>
       </c>
-      <c r="H452" s="1"/>
+      <c r="H452" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8863636363636365</v>
+      </c>
     </row>
     <row r="453" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
@@ -17669,7 +19050,10 @@
       <c r="G453" s="1">
         <v>0</v>
       </c>
-      <c r="H453" s="1"/>
+      <c r="H453" s="1">
+        <f t="shared" si="7"/>
+        <v>3.0370370370370372</v>
+      </c>
     </row>
     <row r="454" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
@@ -17693,7 +19077,10 @@
       <c r="G454" s="1">
         <v>0</v>
       </c>
-      <c r="H454" s="1"/>
+      <c r="H454" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2777777777777777</v>
+      </c>
     </row>
     <row r="455" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
@@ -17717,7 +19104,10 @@
       <c r="G455" s="1">
         <v>0</v>
       </c>
-      <c r="H455" s="1"/>
+      <c r="H455" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7446808510638299</v>
+      </c>
     </row>
     <row r="456" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
@@ -17741,7 +19131,10 @@
       <c r="G456" s="1">
         <v>2</v>
       </c>
-      <c r="H456" s="1"/>
+      <c r="H456" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7446808510638299</v>
+      </c>
     </row>
     <row r="457" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
@@ -17765,7 +19158,10 @@
       <c r="G457" s="1">
         <v>0</v>
       </c>
-      <c r="H457" s="1"/>
+      <c r="H457" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4642857142857142</v>
+      </c>
     </row>
     <row r="458" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
@@ -17789,7 +19185,10 @@
       <c r="G458" s="1">
         <v>0</v>
       </c>
-      <c r="H458" s="1"/>
+      <c r="H458" s="1">
+        <f t="shared" si="7"/>
+        <v>7.3636363636363633</v>
+      </c>
     </row>
     <row r="459" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
@@ -17813,7 +19212,10 @@
       <c r="G459" s="1">
         <v>0</v>
       </c>
-      <c r="H459" s="1"/>
+      <c r="H459" s="1">
+        <f t="shared" si="7"/>
+        <v>5.0625</v>
+      </c>
     </row>
     <row r="460" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
@@ -17837,7 +19239,10 @@
       <c r="G460" s="1">
         <v>0</v>
       </c>
-      <c r="H460" s="1"/>
+      <c r="H460" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="461" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
@@ -17861,7 +19266,10 @@
       <c r="G461" s="1">
         <v>0</v>
       </c>
-      <c r="H461" s="1"/>
+      <c r="H461" s="1">
+        <f t="shared" si="7"/>
+        <v>1.975609756097561</v>
+      </c>
     </row>
     <row r="462" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
@@ -17885,7 +19293,10 @@
       <c r="G462" s="1">
         <v>0</v>
       </c>
-      <c r="H462" s="1"/>
+      <c r="H462" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7608695652173914</v>
+      </c>
     </row>
     <row r="463" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
@@ -17909,7 +19320,10 @@
       <c r="G463" s="1">
         <v>0</v>
       </c>
-      <c r="H463" s="1"/>
+      <c r="H463" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="464" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
@@ -17933,7 +19347,10 @@
       <c r="G464" s="1">
         <v>0</v>
       </c>
-      <c r="H464" s="1"/>
+      <c r="H464" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3529411764705883</v>
+      </c>
     </row>
     <row r="465" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
@@ -17957,7 +19374,10 @@
       <c r="G465" s="1">
         <v>0</v>
       </c>
-      <c r="H465" s="1"/>
+      <c r="H465" s="1">
+        <f t="shared" si="7"/>
+        <v>3.4347826086956523</v>
+      </c>
     </row>
     <row r="466" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
@@ -17981,7 +19401,10 @@
       <c r="G466" s="1">
         <v>1</v>
       </c>
-      <c r="H466" s="1"/>
+      <c r="H466" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8372093023255813</v>
+      </c>
     </row>
     <row r="467" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
@@ -18005,7 +19428,10 @@
       <c r="G467" s="1">
         <v>4</v>
       </c>
-      <c r="H467" s="1"/>
+      <c r="H467" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5490196078431373</v>
+      </c>
     </row>
     <row r="468" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
@@ -18029,7 +19455,10 @@
       <c r="G468" s="1">
         <v>0</v>
       </c>
-      <c r="H468" s="1"/>
+      <c r="H468" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="469" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
@@ -18053,7 +19482,10 @@
       <c r="G469" s="1">
         <v>1</v>
       </c>
-      <c r="H469" s="1"/>
+      <c r="H469" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2941176470588234</v>
+      </c>
     </row>
     <row r="470" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
@@ -18077,7 +19509,10 @@
       <c r="G470" s="1">
         <v>0</v>
       </c>
-      <c r="H470" s="1"/>
+      <c r="H470" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8139534883720929</v>
+      </c>
     </row>
     <row r="471" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
@@ -18101,7 +19536,10 @@
       <c r="G471" s="1">
         <v>0</v>
       </c>
-      <c r="H471" s="1"/>
+      <c r="H471" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6595744680851063</v>
+      </c>
     </row>
     <row r="472" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
@@ -18125,7 +19563,10 @@
       <c r="G472" s="1">
         <v>0</v>
       </c>
-      <c r="H472" s="1"/>
+      <c r="H472" s="1">
+        <f t="shared" si="7"/>
+        <v>2.75</v>
+      </c>
     </row>
     <row r="473" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
@@ -18149,7 +19590,10 @@
       <c r="G473" s="1">
         <v>2</v>
       </c>
-      <c r="H473" s="1"/>
+      <c r="H473" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4528301886792452</v>
+      </c>
     </row>
     <row r="474" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
@@ -18173,7 +19617,10 @@
       <c r="G474" s="1">
         <v>1</v>
       </c>
-      <c r="H474" s="1"/>
+      <c r="H474" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2352941176470589</v>
+      </c>
     </row>
     <row r="475" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
@@ -18197,7 +19644,10 @@
       <c r="G475" s="1">
         <v>1</v>
       </c>
-      <c r="H475" s="1"/>
+      <c r="H475" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1111111111111112</v>
+      </c>
     </row>
     <row r="476" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
@@ -18221,7 +19671,10 @@
       <c r="G476" s="1">
         <v>0</v>
       </c>
-      <c r="H476" s="1"/>
+      <c r="H476" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5510204081632653</v>
+      </c>
     </row>
     <row r="477" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
@@ -18245,7 +19698,10 @@
       <c r="G477" s="1">
         <v>0</v>
       </c>
-      <c r="H477" s="1"/>
+      <c r="H477" s="1">
+        <f t="shared" si="7"/>
+        <v>3.125</v>
+      </c>
     </row>
     <row r="478" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
@@ -18269,7 +19725,10 @@
       <c r="G478" s="1">
         <v>1</v>
       </c>
-      <c r="H478" s="1"/>
+      <c r="H478" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5862068965517242</v>
+      </c>
     </row>
     <row r="479" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
@@ -18293,7 +19752,10 @@
       <c r="G479" s="1">
         <v>0</v>
       </c>
-      <c r="H479" s="1"/>
+      <c r="H479" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
     </row>
     <row r="480" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
@@ -18317,7 +19779,10 @@
       <c r="G480" s="1">
         <v>0</v>
       </c>
-      <c r="H480" s="1"/>
+      <c r="H480" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0270270270270272</v>
+      </c>
     </row>
     <row r="481" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
@@ -18341,7 +19806,10 @@
       <c r="G481" s="1">
         <v>1</v>
       </c>
-      <c r="H481" s="1"/>
+      <c r="H481" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
+      </c>
     </row>
     <row r="482" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
@@ -18365,7 +19833,10 @@
       <c r="G482" s="1">
         <v>0</v>
       </c>
-      <c r="H482" s="1"/>
+      <c r="H482" s="1">
+        <f t="shared" si="7"/>
+        <v>9.25</v>
+      </c>
     </row>
     <row r="483" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
@@ -18389,7 +19860,10 @@
       <c r="G483" s="1">
         <v>0</v>
       </c>
-      <c r="H483" s="1"/>
+      <c r="H483" s="1">
+        <f t="shared" si="7"/>
+        <v>2.6428571428571428</v>
+      </c>
     </row>
     <row r="484" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
@@ -18413,7 +19887,10 @@
       <c r="G484" s="1">
         <v>0</v>
       </c>
-      <c r="H484" s="1"/>
+      <c r="H484" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3125</v>
+      </c>
     </row>
     <row r="485" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
@@ -18437,7 +19914,10 @@
       <c r="G485" s="1">
         <v>0</v>
       </c>
-      <c r="H485" s="1"/>
+      <c r="H485" s="1">
+        <f t="shared" si="7"/>
+        <v>1.6818181818181819</v>
+      </c>
     </row>
     <row r="486" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
@@ -18461,7 +19941,10 @@
       <c r="G486" s="1">
         <v>1</v>
       </c>
-      <c r="H486" s="1"/>
+      <c r="H486" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5172413793103448</v>
+      </c>
     </row>
     <row r="487" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
@@ -18485,7 +19968,10 @@
       <c r="G487" s="1">
         <v>0</v>
       </c>
-      <c r="H487" s="1"/>
+      <c r="H487" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0277777777777777</v>
+      </c>
     </row>
     <row r="488" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
@@ -18509,7 +19995,10 @@
       <c r="G488" s="1">
         <v>0</v>
       </c>
-      <c r="H488" s="1"/>
+      <c r="H488" s="1">
+        <f t="shared" si="7"/>
+        <v>1.972972972972973</v>
+      </c>
     </row>
     <row r="489" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
@@ -18533,7 +20022,10 @@
       <c r="G489" s="1">
         <v>0</v>
       </c>
-      <c r="H489" s="1"/>
+      <c r="H489" s="1">
+        <f t="shared" si="7"/>
+        <v>2.6666666666666665</v>
+      </c>
     </row>
     <row r="490" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
@@ -18557,7 +20049,10 @@
       <c r="G490" s="1">
         <v>0</v>
       </c>
-      <c r="H490" s="1"/>
+      <c r="H490" s="1">
+        <f t="shared" si="7"/>
+        <v>14.2</v>
+      </c>
     </row>
     <row r="491" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
@@ -18581,7 +20076,10 @@
       <c r="G491" s="1">
         <v>0</v>
       </c>
-      <c r="H491" s="1"/>
+      <c r="H491" s="1">
+        <f t="shared" si="7"/>
+        <v>4.1764705882352944</v>
+      </c>
     </row>
     <row r="492" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
@@ -18605,7 +20103,10 @@
       <c r="G492" s="1">
         <v>0</v>
       </c>
-      <c r="H492" s="1"/>
+      <c r="H492" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5777777777777777</v>
+      </c>
     </row>
     <row r="493" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
@@ -18629,7 +20130,10 @@
       <c r="G493" s="1">
         <v>0</v>
       </c>
-      <c r="H493" s="1"/>
+      <c r="H493" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5434782608695652</v>
+      </c>
     </row>
     <row r="494" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
@@ -18653,7 +20157,10 @@
       <c r="G494" s="1">
         <v>0</v>
       </c>
-      <c r="H494" s="1"/>
+      <c r="H494" s="1">
+        <f t="shared" si="7"/>
+        <v>2.8</v>
+      </c>
     </row>
     <row r="495" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
@@ -18677,7 +20184,10 @@
       <c r="G495" s="1">
         <v>0</v>
       </c>
-      <c r="H495" s="1"/>
+      <c r="H495" s="1">
+        <f t="shared" si="7"/>
+        <v>2.3333333333333335</v>
+      </c>
     </row>
     <row r="496" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
@@ -18701,7 +20211,10 @@
       <c r="G496" s="1">
         <v>0</v>
       </c>
-      <c r="H496" s="1"/>
+      <c r="H496" s="1">
+        <f t="shared" si="7"/>
+        <v>2.2580645161290325</v>
+      </c>
     </row>
     <row r="497" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
@@ -18725,7 +20238,10 @@
       <c r="G497" s="1">
         <v>0</v>
       </c>
-      <c r="H497" s="1"/>
+      <c r="H497" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1212121212121211</v>
+      </c>
     </row>
     <row r="498" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
@@ -18749,7 +20265,10 @@
       <c r="G498" s="1">
         <v>0</v>
       </c>
-      <c r="H498" s="1"/>
+      <c r="H498" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3125</v>
+      </c>
     </row>
     <row r="499" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
@@ -18773,7 +20292,10 @@
       <c r="G499" s="1">
         <v>0</v>
       </c>
-      <c r="H499" s="1"/>
+      <c r="H499" s="1">
+        <f t="shared" si="7"/>
+        <v>2.875</v>
+      </c>
     </row>
     <row r="500" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
@@ -18797,7 +20319,10 @@
       <c r="G500" s="1">
         <v>1</v>
       </c>
-      <c r="H500" s="1"/>
+      <c r="H500" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0909090909090908</v>
+      </c>
     </row>
     <row r="501" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
@@ -18821,9 +20346,16 @@
       <c r="G501" s="1">
         <v>0</v>
       </c>
-      <c r="H501" s="1"/>
+      <c r="H501" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8157894736842106</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I501" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="top10" dxfId="0" priority="1" rank="10"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
